--- a/output.xlsx
+++ b/output.xlsx
@@ -406,13 +406,13 @@
         <v>193</v>
       </c>
       <c r="B2" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C2">
-        <v>21196.68087362855</v>
+        <v>23185.1819472352</v>
       </c>
       <c r="D2">
-        <v>-2352.33403714493</v>
+        <v>1988.501073606654</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>192</v>
       </c>
       <c r="B3" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C3">
-        <v>23549.01491077348</v>
+        <v>21196.68087362855</v>
       </c>
       <c r="D3">
-        <v>-1471.674143342574</v>
+        <v>-2352.33403714493</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>191</v>
       </c>
       <c r="B4" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="C4">
-        <v>25020.68905411605</v>
+        <v>23549.01491077348</v>
       </c>
       <c r="D4">
-        <v>1181.563243005403</v>
+        <v>-1471.674143342574</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>190</v>
       </c>
       <c r="B5" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="C5">
-        <v>23839.12581111065</v>
+        <v>25020.68905411605</v>
       </c>
       <c r="D5">
-        <v>-2027.687707366509</v>
+        <v>1181.563243005403</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>189</v>
       </c>
       <c r="B6" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="C6">
-        <v>25866.81351847716</v>
+        <v>23839.12581111065</v>
       </c>
       <c r="D6">
-        <v>-251.2789734683429</v>
+        <v>-2027.687707366509</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>188</v>
       </c>
       <c r="B7" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C7">
-        <v>26118.0924919455</v>
+        <v>25866.81351847716</v>
       </c>
       <c r="D7">
-        <v>-971.0355472693591</v>
+        <v>-251.2789734683429</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>187</v>
       </c>
       <c r="B8" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C8">
-        <v>27089.12803921486</v>
+        <v>26118.0924919455</v>
       </c>
       <c r="D8">
-        <v>1181.146818471771</v>
+        <v>-971.0355472693591</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C9">
-        <v>25907.98122074309</v>
+        <v>27089.12803921486</v>
       </c>
       <c r="D9">
-        <v>-797.2766457778962</v>
+        <v>1181.146818471771</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>185</v>
       </c>
       <c r="B10" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="C10">
-        <v>26705.25786652099</v>
+        <v>25907.98122074309</v>
       </c>
       <c r="D10">
-        <v>1270.739132628769</v>
+        <v>-797.2766457778962</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>184</v>
       </c>
       <c r="B11" s="2">
-        <v>43889</v>
+        <v>43892</v>
       </c>
       <c r="C11">
-        <v>25434.51873389222</v>
+        <v>26705.25786652099</v>
       </c>
       <c r="D11">
-        <v>-318.7275400308972</v>
+        <v>1270.739132628769</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>183</v>
       </c>
       <c r="B12" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C12">
-        <v>25753.24627392312</v>
+        <v>25434.51873389222</v>
       </c>
       <c r="D12">
-        <v>-1208.07198782856</v>
+        <v>-318.7275400308972</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>182</v>
       </c>
       <c r="B13" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C13">
-        <v>26961.31826175168</v>
+        <v>25753.24627392312</v>
       </c>
       <c r="D13">
-        <v>-122.6892477744223</v>
+        <v>-1208.07198782856</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>181</v>
       </c>
       <c r="B14" s="2">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="C14">
-        <v>27084.0075095261</v>
+        <v>26961.31826175168</v>
       </c>
       <c r="D14">
-        <v>-879.2458137492358</v>
+        <v>-122.6892477744223</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>180</v>
       </c>
       <c r="B15" s="2">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="C15">
-        <v>27963.25332327533</v>
+        <v>27084.0075095261</v>
       </c>
       <c r="D15">
-        <v>-1030.440473817504</v>
+        <v>-879.2458137492358</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>179</v>
       </c>
       <c r="B16" s="2">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="C16">
-        <v>28993.69379709284</v>
+        <v>27963.25332327533</v>
       </c>
       <c r="D16">
-        <v>-221.4388323761414</v>
+        <v>-1030.440473817504</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>178</v>
       </c>
       <c r="B17" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C17">
-        <v>29215.13262946898</v>
+        <v>28993.69379709284</v>
       </c>
       <c r="D17">
-        <v>-132.0499829749933</v>
+        <v>-221.4388323761414</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,13 +630,13 @@
         <v>177</v>
       </c>
       <c r="B18" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C18">
-        <v>29347.18261244397</v>
+        <v>29215.13262946898</v>
       </c>
       <c r="D18">
-        <v>114.4177272334746</v>
+        <v>-132.0499829749933</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -644,13 +644,13 @@
         <v>176</v>
       </c>
       <c r="B19" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C19">
-        <v>29232.7648852105</v>
+        <v>29347.18261244397</v>
       </c>
       <c r="D19">
-        <v>-162.7697700282806</v>
+        <v>114.4177272334746</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -658,13 +658,13 @@
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C20">
-        <v>29395.53465523878</v>
+        <v>29232.7648852105</v>
       </c>
       <c r="D20">
-        <v>-34.70905269956347</v>
+        <v>-162.7697700282806</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -672,13 +672,13 @@
         <v>174</v>
       </c>
       <c r="B21" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C21">
-        <v>29430.24370793834</v>
+        <v>29395.53465523878</v>
       </c>
       <c r="D21">
-        <v>-120.6898674403274</v>
+        <v>-34.70905269956347</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -686,13 +686,13 @@
         <v>173</v>
       </c>
       <c r="B22" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C22">
-        <v>29550.93357537867</v>
+        <v>29430.24370793834</v>
       </c>
       <c r="D22">
-        <v>273.3047115043992</v>
+        <v>-120.6898674403274</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -700,13 +700,13 @@
         <v>172</v>
       </c>
       <c r="B23" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C23">
-        <v>29277.62886387427</v>
+        <v>29550.93357537867</v>
       </c>
       <c r="D23">
-        <v>-0.7121266454669239</v>
+        <v>273.3047115043992</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -714,13 +714,13 @@
         <v>171</v>
       </c>
       <c r="B24" s="2">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="C24">
-        <v>29278.34099051974</v>
+        <v>29277.62886387427</v>
       </c>
       <c r="D24">
-        <v>175.2414813457253</v>
+        <v>-0.7121266454669239</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -728,13 +728,13 @@
         <v>170</v>
       </c>
       <c r="B25" s="2">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="C25">
-        <v>29103.09950917401</v>
+        <v>29278.34099051974</v>
       </c>
       <c r="D25">
-        <v>-276.9060376828456</v>
+        <v>175.2414813457253</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -742,13 +742,13 @@
         <v>169</v>
       </c>
       <c r="B26" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C26">
-        <v>29380.00554685686</v>
+        <v>29103.09950917401</v>
       </c>
       <c r="D26">
-        <v>87.0829155015781</v>
+        <v>-276.9060376828456</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,13 +756,13 @@
         <v>168</v>
       </c>
       <c r="B27" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C27">
-        <v>29292.92263135528</v>
+        <v>29380.00554685686</v>
       </c>
       <c r="D27">
-        <v>483.2966167167142</v>
+        <v>87.0829155015781</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -770,13 +770,13 @@
         <v>167</v>
       </c>
       <c r="B28" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C28">
-        <v>28809.62601463856</v>
+        <v>29292.92263135528</v>
       </c>
       <c r="D28">
-        <v>411.6431118666769</v>
+        <v>483.2966167167142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -784,13 +784,13 @@
         <v>166</v>
       </c>
       <c r="B29" s="2">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="C29">
-        <v>28397.98290277189</v>
+        <v>28809.62601463856</v>
       </c>
       <c r="D29">
-        <v>152.8895214844742</v>
+        <v>411.6431118666769</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -798,13 +798,13 @@
         <v>165</v>
       </c>
       <c r="B30" s="2">
-        <v>43861</v>
+        <v>43864</v>
       </c>
       <c r="C30">
-        <v>28245.09338128741</v>
+        <v>28397.98290277189</v>
       </c>
       <c r="D30">
-        <v>-612.0118123434004</v>
+        <v>152.8895214844742</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -812,13 +812,13 @@
         <v>164</v>
       </c>
       <c r="B31" s="2">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="C31">
-        <v>28857.10519363081</v>
+        <v>28245.09338128741</v>
       </c>
       <c r="D31">
-        <v>122.8967818253841</v>
+        <v>-612.0118123434004</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -826,13 +826,13 @@
         <v>163</v>
       </c>
       <c r="B32" s="2">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="C32">
-        <v>28734.20841180543</v>
+        <v>28857.10519363081</v>
       </c>
       <c r="D32">
-        <v>10.2749701701614</v>
+        <v>122.8967818253841</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -840,13 +840,13 @@
         <v>162</v>
       </c>
       <c r="B33" s="2">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="C33">
-        <v>28723.93344163527</v>
+        <v>28734.20841180543</v>
       </c>
       <c r="D33">
-        <v>194.3088418317966</v>
+        <v>10.2749701701614</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -854,13 +854,13 @@
         <v>161</v>
       </c>
       <c r="B34" s="2">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="C34">
-        <v>28529.62459980347</v>
+        <v>28723.93344163527</v>
       </c>
       <c r="D34">
-        <v>-460.3390100988836</v>
+        <v>194.3088418317966</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -868,13 +868,13 @@
         <v>160</v>
       </c>
       <c r="B35" s="2">
-        <v>43854</v>
+        <v>43857</v>
       </c>
       <c r="C35">
-        <v>28989.96360990236</v>
+        <v>28529.62459980347</v>
       </c>
       <c r="D35">
-        <v>-169.1463554764669</v>
+        <v>-460.3390100988836</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -882,13 +882,13 @@
         <v>159</v>
       </c>
       <c r="B36" s="2">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="C36">
-        <v>29159.10996537882</v>
+        <v>28989.96360990236</v>
       </c>
       <c r="D36">
-        <v>-28.31822471848136</v>
+        <v>-169.1463554764669</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -896,13 +896,13 @@
         <v>158</v>
       </c>
       <c r="B37" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C37">
-        <v>29187.4281900973</v>
+        <v>29159.10996537882</v>
       </c>
       <c r="D37">
-        <v>-11.39199167974948</v>
+        <v>-28.31822471848136</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -910,13 +910,13 @@
         <v>157</v>
       </c>
       <c r="B38" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C38">
-        <v>29198.82018177705</v>
+        <v>29187.4281900973</v>
       </c>
       <c r="D38">
-        <v>-142.9000801883485</v>
+        <v>-11.39199167974948</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -924,13 +924,13 @@
         <v>156</v>
       </c>
       <c r="B39" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C39">
-        <v>29341.7202619654</v>
+        <v>29198.82018177705</v>
       </c>
       <c r="D39">
-        <v>42.62586634949912</v>
+        <v>-142.9000801883485</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -938,13 +938,13 @@
         <v>155</v>
       </c>
       <c r="B40" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C40">
-        <v>29299.0943956159</v>
+        <v>29341.7202619654</v>
       </c>
       <c r="D40">
-        <v>262.2999810765941</v>
+        <v>42.62586634949912</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -952,13 +952,13 @@
         <v>154</v>
       </c>
       <c r="B41" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C41">
-        <v>29036.79441453931</v>
+        <v>29299.0943956159</v>
       </c>
       <c r="D41">
-        <v>102.4784153605033</v>
+        <v>262.2999810765941</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -966,13 +966,13 @@
         <v>153</v>
       </c>
       <c r="B42" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C42">
-        <v>28934.31599917881</v>
+        <v>29036.79441453931</v>
       </c>
       <c r="D42">
-        <v>30.58753496201098</v>
+        <v>102.4784153605033</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -980,13 +980,13 @@
         <v>152</v>
       </c>
       <c r="B43" s="2">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="C43">
-        <v>28903.72846421679</v>
+        <v>28934.31599917881</v>
       </c>
       <c r="D43">
-        <v>78.13385732366078</v>
+        <v>30.58753496201098</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -994,13 +994,13 @@
         <v>151</v>
       </c>
       <c r="B44" s="2">
-        <v>43840</v>
+        <v>43843</v>
       </c>
       <c r="C44">
-        <v>28825.59460689313</v>
+        <v>28903.72846421679</v>
       </c>
       <c r="D44">
-        <v>-132.2554823783867</v>
+        <v>78.13385732366078</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>150</v>
       </c>
       <c r="B45" s="2">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="C45">
-        <v>28957.85008927152</v>
+        <v>28825.59460689313</v>
       </c>
       <c r="D45">
-        <v>212.0441863829365</v>
+        <v>-132.2554823783867</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>149</v>
       </c>
       <c r="B46" s="2">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="C46">
-        <v>28745.80590288858</v>
+        <v>28957.85008927152</v>
       </c>
       <c r="D46">
-        <v>164.0943255888378</v>
+        <v>212.0441863829365</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>148</v>
       </c>
       <c r="B47" s="2">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="C47">
-        <v>28581.71157729975</v>
+        <v>28745.80590288858</v>
       </c>
       <c r="D47">
-        <v>-121.7736563731196</v>
+        <v>164.0943255888378</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="2">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="C48">
-        <v>28703.48523367287</v>
+        <v>28581.71157729975</v>
       </c>
       <c r="D48">
-        <v>75.72279996691213</v>
+        <v>-121.7736563731196</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>146</v>
       </c>
       <c r="B49" s="2">
-        <v>43833</v>
+        <v>43836</v>
       </c>
       <c r="C49">
-        <v>28627.76243370595</v>
+        <v>28703.48523367287</v>
       </c>
       <c r="D49">
-        <v>-245.717603475252</v>
+        <v>75.72279996691213</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>145</v>
       </c>
       <c r="B50" s="2">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="C50">
-        <v>28873.48003718121</v>
+        <v>28627.76243370595</v>
       </c>
       <c r="D50">
-        <v>345.1440474980809</v>
+        <v>-245.717603475252</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>144</v>
       </c>
       <c r="B51" s="2">
-        <v>43830</v>
+        <v>43832</v>
       </c>
       <c r="C51">
-        <v>28528.33598968312</v>
+        <v>28873.48003718121</v>
       </c>
       <c r="D51">
-        <v>59.93732599262876</v>
+        <v>345.1440474980809</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>143</v>
       </c>
       <c r="B52" s="2">
-        <v>43829</v>
+        <v>43830</v>
       </c>
       <c r="C52">
-        <v>28468.3986636905</v>
+        <v>28528.33598968312</v>
       </c>
       <c r="D52">
-        <v>-176.7593284243449</v>
+        <v>59.93732599262876</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>142</v>
       </c>
       <c r="B53" s="2">
-        <v>43826</v>
+        <v>43829</v>
       </c>
       <c r="C53">
-        <v>28645.15799211484</v>
+        <v>28468.3986636905</v>
       </c>
       <c r="D53">
-        <v>21.26138876994082</v>
+        <v>-176.7593284243449</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>141</v>
       </c>
       <c r="B54" s="2">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="C54">
-        <v>28623.8966033449</v>
+        <v>28645.15799211484</v>
       </c>
       <c r="D54">
-        <v>106.6128191992721</v>
+        <v>21.26138876994082</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>140</v>
       </c>
       <c r="B55" s="2">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="C55">
-        <v>28517.28378414563</v>
+        <v>28623.8966033449</v>
       </c>
       <c r="D55">
-        <v>-34.68802800813501</v>
+        <v>106.6128191992721</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>139</v>
       </c>
       <c r="B56" s="2">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C56">
-        <v>28551.97181215376</v>
+        <v>28517.28378414563</v>
       </c>
       <c r="D56">
-        <v>98.03610152455803</v>
+        <v>-34.68802800813501</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>138</v>
       </c>
       <c r="B57" s="2">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C57">
-        <v>28453.9357106292</v>
+        <v>28551.97181215376</v>
       </c>
       <c r="D57">
-        <v>78.1304662444054</v>
+        <v>98.03610152455803</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>137</v>
       </c>
       <c r="B58" s="2">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C58">
-        <v>28375.8052443848</v>
+        <v>28453.9357106292</v>
       </c>
       <c r="D58">
-        <v>131.133035141982</v>
+        <v>78.1304662444054</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>136</v>
       </c>
       <c r="B59" s="2">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C59">
-        <v>28244.67220924282</v>
+        <v>28375.8052443848</v>
       </c>
       <c r="D59">
-        <v>-19.83781369486678</v>
+        <v>131.133035141982</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>135</v>
       </c>
       <c r="B60" s="2">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C60">
-        <v>28264.51002293768</v>
+        <v>28244.67220924282</v>
       </c>
       <c r="D60">
-        <v>29.71534937527758</v>
+        <v>-19.83781369486678</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>134</v>
       </c>
       <c r="B61" s="2">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C61">
-        <v>28234.79467356241</v>
+        <v>28264.51002293768</v>
       </c>
       <c r="D61">
-        <v>97.61967699092565</v>
+        <v>29.71534937527758</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>133</v>
       </c>
       <c r="B62" s="2">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C62">
-        <v>28137.17499657148</v>
+        <v>28234.79467356241</v>
       </c>
       <c r="D62">
-        <v>6.81606932080831</v>
+        <v>97.61967699092565</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>132</v>
       </c>
       <c r="B63" s="2">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C63">
-        <v>28130.35892725067</v>
+        <v>28137.17499657148</v>
       </c>
       <c r="D63">
-        <v>222.5904428942267</v>
+        <v>6.81606932080831</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>131</v>
       </c>
       <c r="B64" s="2">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C64">
-        <v>27907.76848435645</v>
+        <v>28130.35892725067</v>
       </c>
       <c r="D64">
-        <v>23.53409009270399</v>
+        <v>222.5904428942267</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>130</v>
       </c>
       <c r="B65" s="2">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C65">
-        <v>27884.23439426374</v>
+        <v>27907.76848435645</v>
       </c>
       <c r="D65">
-        <v>-26.00957795548675</v>
+        <v>23.53409009270399</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>129</v>
       </c>
       <c r="B66" s="2">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C66">
-        <v>27910.24397221923</v>
+        <v>27884.23439426374</v>
       </c>
       <c r="D66">
-        <v>-103.1905420059556</v>
+        <v>-26.00957795548675</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>128</v>
       </c>
       <c r="B67" s="2">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C67">
-        <v>28013.43451422518</v>
+        <v>27910.24397221923</v>
       </c>
       <c r="D67">
-        <v>330.4945850772419</v>
+        <v>-103.1905420059556</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>127</v>
       </c>
       <c r="B68" s="2">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C68">
-        <v>27682.93992914794</v>
+        <v>28013.43451422518</v>
       </c>
       <c r="D68">
-        <v>28.82417374468787</v>
+        <v>330.4945850772419</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>126</v>
       </c>
       <c r="B69" s="2">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C69">
-        <v>27654.11575540325</v>
+        <v>27682.93992914794</v>
       </c>
       <c r="D69">
-        <v>147.3763048169276</v>
+        <v>28.82417374468787</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>125</v>
       </c>
       <c r="B70" s="2">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C70">
-        <v>27506.73945058633</v>
+        <v>27654.11575540325</v>
       </c>
       <c r="D70">
-        <v>-285.6373885720095</v>
+        <v>147.3763048169276</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>124</v>
       </c>
       <c r="B71" s="2">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C71">
-        <v>27792.37683915834</v>
+        <v>27506.73945058633</v>
       </c>
       <c r="D71">
-        <v>-268.9614171829708</v>
+        <v>-285.6373885720095</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>123</v>
       </c>
       <c r="B72" s="2">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="C72">
-        <v>28061.33825634131</v>
+        <v>27792.37683915834</v>
       </c>
       <c r="D72">
-        <v>-105.8471135014297</v>
+        <v>-268.9614171829708</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>122</v>
       </c>
       <c r="B73" s="2">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="C73">
-        <v>28167.18536984274</v>
+        <v>28061.33825634131</v>
       </c>
       <c r="D73">
-        <v>50.89942153799348</v>
+        <v>-105.8471135014297</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>121</v>
       </c>
       <c r="B74" s="2">
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="C74">
-        <v>28116.28594830474</v>
+        <v>28167.18536984274</v>
       </c>
       <c r="D74">
-        <v>50.3595617191495</v>
+        <v>50.89942153799348</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>120</v>
       </c>
       <c r="B75" s="2">
-        <v>43794</v>
+        <v>43795</v>
       </c>
       <c r="C75">
-        <v>28065.92638658559</v>
+        <v>28116.28594830474</v>
       </c>
       <c r="D75">
-        <v>192.5156391169476</v>
+        <v>50.3595617191495</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>119</v>
       </c>
       <c r="B76" s="2">
-        <v>43791</v>
+        <v>43794</v>
       </c>
       <c r="C76">
-        <v>27873.41074746865</v>
+        <v>28065.92638658559</v>
       </c>
       <c r="D76">
-        <v>107.389376350744</v>
+        <v>192.5156391169476</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>118</v>
       </c>
       <c r="B77" s="2">
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="C77">
-        <v>27766.0213711179</v>
+        <v>27873.41074746865</v>
       </c>
       <c r="D77">
-        <v>-53.30640959963785</v>
+        <v>107.389376350744</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>117</v>
       </c>
       <c r="B78" s="2">
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="C78">
-        <v>27819.32778071754</v>
+        <v>27766.0213711179</v>
       </c>
       <c r="D78">
-        <v>-113.8520952122235</v>
+        <v>-53.30640959963785</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>116</v>
       </c>
       <c r="B79" s="2">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="C79">
-        <v>27933.17987592976</v>
+        <v>27819.32778071754</v>
       </c>
       <c r="D79">
-        <v>-100.2620059535002</v>
+        <v>-113.8520952122235</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>115</v>
       </c>
       <c r="B80" s="2">
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="C80">
-        <v>28033.44188188326</v>
+        <v>27933.17987592976</v>
       </c>
       <c r="D80">
-        <v>30.45189179144654</v>
+        <v>-100.2620059535002</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>114</v>
       </c>
       <c r="B81" s="2">
-        <v>43784</v>
+        <v>43787</v>
       </c>
       <c r="C81">
-        <v>28002.98999009182</v>
+        <v>28033.44188188326</v>
       </c>
       <c r="D81">
-        <v>216.8771525500888</v>
+        <v>30.45189179144654</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>113</v>
       </c>
       <c r="B82" s="2">
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="C82">
-        <v>27786.11283754173</v>
+        <v>28002.98999009182</v>
       </c>
       <c r="D82">
-        <v>5.91675509997367</v>
+        <v>216.8771525500888</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>112</v>
       </c>
       <c r="B83" s="2">
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="C83">
-        <v>27780.19608244175</v>
+        <v>27786.11283754173</v>
       </c>
       <c r="D83">
-        <v>87.32029105006586</v>
+        <v>5.91675509997367</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>111</v>
       </c>
       <c r="B84" s="2">
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="C84">
-        <v>27692.87579139169</v>
+        <v>27780.19608244175</v>
       </c>
       <c r="D84">
-        <v>3.323257678795926</v>
+        <v>87.32029105006586</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>110</v>
       </c>
       <c r="B85" s="2">
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="C85">
-        <v>27689.55253371289</v>
+        <v>27692.87579139169</v>
       </c>
       <c r="D85">
-        <v>11.74262927565724</v>
+        <v>3.323257678795926</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>109</v>
       </c>
       <c r="B86" s="2">
-        <v>43777</v>
+        <v>43780</v>
       </c>
       <c r="C86">
-        <v>27677.80990443724</v>
+        <v>27689.55253371289</v>
       </c>
       <c r="D86">
-        <v>-2.664031869866449</v>
+        <v>11.74262927565724</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>108</v>
       </c>
       <c r="B87" s="2">
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="C87">
-        <v>27680.4739363071</v>
+        <v>27677.80990443724</v>
       </c>
       <c r="D87">
-        <v>188.6891452753662</v>
+        <v>-2.664031869866449</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>107</v>
       </c>
       <c r="B88" s="2">
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="C88">
-        <v>27491.78479103174</v>
+        <v>27680.4739363071</v>
       </c>
       <c r="D88">
-        <v>-1.695539632044529</v>
+        <v>188.6891452753662</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>106</v>
       </c>
       <c r="B89" s="2">
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="C89">
-        <v>27493.48033066378</v>
+        <v>27491.78479103174</v>
       </c>
       <c r="D89">
-        <v>29.80758673126911</v>
+        <v>-1.695539632044529</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>105</v>
       </c>
       <c r="B90" s="2">
-        <v>43773</v>
+        <v>43774</v>
       </c>
       <c r="C90">
-        <v>27463.67274393251</v>
+        <v>27493.48033066378</v>
       </c>
       <c r="D90">
-        <v>117.5687180856621</v>
+        <v>29.80758673126911</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>104</v>
       </c>
       <c r="B91" s="2">
-        <v>43770</v>
+        <v>43773</v>
       </c>
       <c r="C91">
-        <v>27346.10402584685</v>
+        <v>27463.67274393251</v>
       </c>
       <c r="D91">
-        <v>299.0796267748083</v>
+        <v>117.5687180856621</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>103</v>
       </c>
       <c r="B92" s="2">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="C92">
-        <v>27047.02439907204</v>
+        <v>27346.10402584685</v>
       </c>
       <c r="D92">
-        <v>-141.3469658853865</v>
+        <v>299.0796267748083</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>102</v>
       </c>
       <c r="B93" s="2">
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="C93">
-        <v>27188.37136495743</v>
+        <v>27047.02439907204</v>
       </c>
       <c r="D93">
-        <v>119.2201736872667</v>
+        <v>-141.3469658853865</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>101</v>
       </c>
       <c r="B94" s="2">
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="C94">
-        <v>27069.15119127016</v>
+        <v>27188.37136495743</v>
       </c>
       <c r="D94">
-        <v>-20.01211516904004</v>
+        <v>119.2201736872667</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="2">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="C95">
-        <v>27089.1633064392</v>
+        <v>27069.15119127016</v>
       </c>
       <c r="D95">
-        <v>135.4410622390606</v>
+        <v>-20.01211516904004</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="2">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="C96">
-        <v>26953.72224420014</v>
+        <v>27089.1633064392</v>
       </c>
       <c r="D96">
-        <v>147.3084832316417</v>
+        <v>135.4410622390606</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="C97">
-        <v>26806.4137609685</v>
+        <v>26953.72224420014</v>
       </c>
       <c r="D97">
-        <v>-26.48432905246591</v>
+        <v>147.3084832316417</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="C98">
-        <v>26832.89809002096</v>
+        <v>26806.4137609685</v>
       </c>
       <c r="D98">
-        <v>41.60854257027313</v>
+        <v>-26.48432905246591</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="C99">
-        <v>26791.28954745069</v>
+        <v>26832.89809002096</v>
       </c>
       <c r="D99">
-        <v>-35.13158117587227</v>
+        <v>41.60854257027313</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>95</v>
       </c>
       <c r="B100" s="2">
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="C100">
-        <v>26826.42112862656</v>
+        <v>26791.28954745069</v>
       </c>
       <c r="D100">
-        <v>56.49538053957076</v>
+        <v>-35.13158117587227</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>94</v>
       </c>
       <c r="B101" s="2">
-        <v>43756</v>
+        <v>43759</v>
       </c>
       <c r="C101">
-        <v>26769.92574808699</v>
+        <v>26826.42112862656</v>
       </c>
       <c r="D101">
-        <v>-259.824493213815</v>
+        <v>56.49538053957076</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="2">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="C102">
-        <v>27029.75024130081</v>
+        <v>26769.92574808699</v>
       </c>
       <c r="D102">
-        <v>21.73681808275433</v>
+        <v>-259.824493213815</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="2">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="C103">
-        <v>27008.01342321805</v>
+        <v>27029.75024130081</v>
       </c>
       <c r="D103">
-        <v>-14.41208687235485</v>
+        <v>21.73681808275433</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="C104">
-        <v>27022.42551009041</v>
+        <v>27008.01342321805</v>
       </c>
       <c r="D104">
-        <v>236.0815126384477</v>
+        <v>-14.41208687235485</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>90</v>
       </c>
       <c r="B105" s="2">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="C105">
-        <v>26786.34399745196</v>
+        <v>27022.42551009041</v>
       </c>
       <c r="D105">
-        <v>-24.17500407362604</v>
+        <v>236.0815126384477</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>89</v>
       </c>
       <c r="B106" s="2">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="C106">
-        <v>26810.51900152559</v>
+        <v>26786.34399745196</v>
       </c>
       <c r="D106">
-        <v>308.6241584714953</v>
+        <v>-24.17500407362604</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>88</v>
       </c>
       <c r="B107" s="2">
-        <v>43748</v>
+        <v>43749</v>
       </c>
       <c r="C107">
-        <v>26501.89484305409</v>
+        <v>26810.51900152559</v>
       </c>
       <c r="D107">
-        <v>156.1592001108911</v>
+        <v>308.6241584714953</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>87</v>
       </c>
       <c r="B108" s="2">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="C108">
-        <v>26345.7356429432</v>
+        <v>26501.89484305409</v>
       </c>
       <c r="D108">
-        <v>184.4950584415456</v>
+        <v>156.1592001108911</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>86</v>
       </c>
       <c r="B109" s="2">
-        <v>43746</v>
+        <v>43747</v>
       </c>
       <c r="C109">
-        <v>26161.24058450165</v>
+        <v>26345.7356429432</v>
       </c>
       <c r="D109">
-        <v>-314.3394834631763</v>
+        <v>184.4950584415456</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>85</v>
       </c>
       <c r="B110" s="2">
-        <v>43745</v>
+        <v>43746</v>
       </c>
       <c r="C110">
-        <v>26475.58006796483</v>
+        <v>26161.24058450165</v>
       </c>
       <c r="D110">
-        <v>-93.62769848125754</v>
+        <v>-314.3394834631763</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>84</v>
       </c>
       <c r="B111" s="2">
-        <v>43742</v>
+        <v>43745</v>
       </c>
       <c r="C111">
-        <v>26569.20776644609</v>
+        <v>26475.58006796483</v>
       </c>
       <c r="D111">
-        <v>366.2026497280276</v>
+        <v>-93.62769848125754</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>83</v>
       </c>
       <c r="B112" s="2">
-        <v>43741</v>
+        <v>43742</v>
       </c>
       <c r="C112">
-        <v>26203.00511671806</v>
+        <v>26569.20776644609</v>
       </c>
       <c r="D112">
-        <v>119.6711872293818</v>
+        <v>366.2026497280276</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>82</v>
       </c>
       <c r="B113" s="2">
-        <v>43740</v>
+        <v>43741</v>
       </c>
       <c r="C113">
-        <v>26083.33392948868</v>
+        <v>26203.00511671806</v>
       </c>
       <c r="D113">
-        <v>-488.5527895760351</v>
+        <v>119.6711872293818</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>81</v>
       </c>
       <c r="B114" s="2">
-        <v>43739</v>
+        <v>43740</v>
       </c>
       <c r="C114">
-        <v>26571.88671906471</v>
+        <v>26083.33392948868</v>
       </c>
       <c r="D114">
-        <v>-349.1787536064803</v>
+        <v>-488.5527895760351</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>80</v>
       </c>
       <c r="B115" s="2">
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="C115">
-        <v>26921.06547267119</v>
+        <v>26571.88671906471</v>
       </c>
       <c r="D115">
-        <v>96.40770526195411</v>
+        <v>-349.1787536064803</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>79</v>
       </c>
       <c r="B116" s="2">
-        <v>43735</v>
+        <v>43738</v>
       </c>
       <c r="C116">
-        <v>26824.65776740924</v>
+        <v>26921.06547267119</v>
       </c>
       <c r="D116">
-        <v>-75.18022728466167</v>
+        <v>96.40770526195411</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>78</v>
       </c>
       <c r="B117" s="2">
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="C117">
-        <v>26899.8379946939</v>
+        <v>26824.65776740924</v>
       </c>
       <c r="D117">
-        <v>-71.34830771624911</v>
+        <v>-75.18022728466167</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>77</v>
       </c>
       <c r="B118" s="2">
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="C118">
-        <v>26971.18630241015</v>
+        <v>26899.8379946939</v>
       </c>
       <c r="D118">
-        <v>156.4983080373058</v>
+        <v>-71.34830771624911</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>76</v>
       </c>
       <c r="B119" s="2">
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="C119">
-        <v>26814.68799437285</v>
+        <v>26971.18630241015</v>
       </c>
       <c r="D119">
-        <v>-135.0327762956767</v>
+        <v>156.4983080373058</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>75</v>
       </c>
       <c r="B120" s="2">
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="C120">
-        <v>26949.72077066852</v>
+        <v>26814.68799437285</v>
       </c>
       <c r="D120">
-        <v>20.99078064466448</v>
+        <v>-135.0327762956767</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>74</v>
       </c>
       <c r="B121" s="2">
-        <v>43728</v>
+        <v>43731</v>
       </c>
       <c r="C121">
-        <v>26928.72999002386</v>
+        <v>26949.72077066852</v>
       </c>
       <c r="D121">
-        <v>-163.0770018096264</v>
+        <v>20.99078064466448</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>73</v>
       </c>
       <c r="B122" s="2">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="C122">
-        <v>27091.80699183348</v>
+        <v>26928.72999002386</v>
       </c>
       <c r="D122">
-        <v>-56.05454023524726</v>
+        <v>-163.0770018096264</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>72</v>
       </c>
       <c r="B123" s="2">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="C123">
-        <v>27147.86153206873</v>
+        <v>27091.80699183348</v>
       </c>
       <c r="D123">
-        <v>41.98156128931078</v>
+        <v>-56.05454023524726</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>71</v>
       </c>
       <c r="B124" s="2">
-        <v>43725</v>
+        <v>43726</v>
       </c>
       <c r="C124">
-        <v>27105.87997077942</v>
+        <v>27147.86153206873</v>
       </c>
       <c r="D124">
-        <v>33.26580936478058</v>
+        <v>41.98156128931078</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>70</v>
       </c>
       <c r="B125" s="2">
-        <v>43724</v>
+        <v>43725</v>
       </c>
       <c r="C125">
-        <v>27072.61416141464</v>
+        <v>27105.87997077942</v>
       </c>
       <c r="D125">
-        <v>-144.1134083490251</v>
+        <v>33.26580936478058</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>69</v>
       </c>
       <c r="B126" s="2">
-        <v>43721</v>
+        <v>43724</v>
       </c>
       <c r="C126">
-        <v>27216.72756976367</v>
+        <v>27072.61416141464</v>
       </c>
       <c r="D126">
-        <v>30.87645491529838</v>
+        <v>-144.1134083490251</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>68</v>
       </c>
       <c r="B127" s="2">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="C127">
-        <v>27185.85111484837</v>
+        <v>27216.72756976367</v>
       </c>
       <c r="D127">
-        <v>53.20196435830439</v>
+        <v>30.87645491529838</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>67</v>
       </c>
       <c r="B128" s="2">
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="C128">
-        <v>27132.64915049006</v>
+        <v>27185.85111484837</v>
       </c>
       <c r="D128">
-        <v>227.3209984676141</v>
+        <v>53.20196435830439</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>66</v>
       </c>
       <c r="B129" s="2">
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="C129">
-        <v>26905.32815202245</v>
+        <v>27132.64915049006</v>
       </c>
       <c r="D129">
-        <v>64.86795524259651</v>
+        <v>227.3209984676141</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>65</v>
       </c>
       <c r="B130" s="2">
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="C130">
-        <v>26840.46019677985</v>
+        <v>26905.32815202245</v>
       </c>
       <c r="D130">
-        <v>42.92495954058177</v>
+        <v>64.86795524259651</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>64</v>
       </c>
       <c r="B131" s="2">
-        <v>43714</v>
+        <v>43717</v>
       </c>
       <c r="C131">
-        <v>26797.53523723927</v>
+        <v>26840.46019677985</v>
       </c>
       <c r="D131">
-        <v>69.76060440480069</v>
+        <v>42.92495954058177</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>63</v>
       </c>
       <c r="B132" s="2">
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="C132">
-        <v>26727.77463283447</v>
+        <v>26797.53523723927</v>
       </c>
       <c r="D132">
-        <v>369.458085821534</v>
+        <v>69.76060440480069</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>62</v>
       </c>
       <c r="B133" s="2">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="C133">
-        <v>26358.31654701294</v>
+        <v>26727.77463283447</v>
       </c>
       <c r="D133">
-        <v>237.5383202902849</v>
+        <v>369.458085821534</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>61</v>
       </c>
       <c r="B134" s="2">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="C134">
-        <v>26120.77822672265</v>
+        <v>26358.31654701294</v>
       </c>
       <c r="D134">
-        <v>-269.8675135623234</v>
+        <v>237.5383202902849</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>60</v>
       </c>
       <c r="B135" s="2">
-        <v>43707</v>
+        <v>43711</v>
       </c>
       <c r="C135">
-        <v>26390.64574028497</v>
+        <v>26120.77822672265</v>
       </c>
       <c r="D135">
-        <v>28.43962535613173</v>
+        <v>-269.8675135623234</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>59</v>
       </c>
       <c r="B136" s="2">
-        <v>43706</v>
+        <v>43707</v>
       </c>
       <c r="C136">
-        <v>26362.20611492884</v>
+        <v>26390.64574028497</v>
       </c>
       <c r="D136">
-        <v>326.9224221804725</v>
+        <v>28.43962535613173</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>58</v>
       </c>
       <c r="B137" s="2">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="C137">
-        <v>26035.28369274837</v>
+        <v>26362.20611492884</v>
       </c>
       <c r="D137">
-        <v>263.3525720801772</v>
+        <v>326.9224221804725</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2310,13 +2310,13 @@
         <v>57</v>
       </c>
       <c r="B138" s="2">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="C138">
-        <v>25771.93112066819</v>
+        <v>26035.28369274837</v>
       </c>
       <c r="D138">
-        <v>-132.6590208108173</v>
+        <v>263.3525720801772</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>56</v>
       </c>
       <c r="B139" s="2">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="C139">
-        <v>25904.59014147901</v>
+        <v>25771.93112066819</v>
       </c>
       <c r="D139">
-        <v>269.5060245127679</v>
+        <v>-132.6590208108173</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>55</v>
       </c>
       <c r="B140" s="2">
-        <v>43700</v>
+        <v>43703</v>
       </c>
       <c r="C140">
-        <v>25635.08411696624</v>
+        <v>25904.59014147901</v>
       </c>
       <c r="D140">
-        <v>-621.4464730719228</v>
+        <v>269.5060245127679</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>54</v>
       </c>
       <c r="B141" s="2">
-        <v>43699</v>
+        <v>43700</v>
       </c>
       <c r="C141">
-        <v>26256.53059003816</v>
+        <v>25635.08411696624</v>
       </c>
       <c r="D141">
-        <v>51.76211210277324</v>
+        <v>-621.4464730719228</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>53</v>
       </c>
       <c r="B142" s="2">
-        <v>43698</v>
+        <v>43699</v>
       </c>
       <c r="C142">
-        <v>26204.76847793539</v>
+        <v>26256.53059003816</v>
       </c>
       <c r="D142">
-        <v>238.7998017765312</v>
+        <v>51.76211210277324</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>52</v>
       </c>
       <c r="B143" s="2">
-        <v>43697</v>
+        <v>43698</v>
       </c>
       <c r="C143">
-        <v>25965.96867615886</v>
+        <v>26204.76847793539</v>
       </c>
       <c r="D143">
-        <v>-168.5705502174278</v>
+        <v>238.7998017765312</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>51</v>
       </c>
       <c r="B144" s="2">
-        <v>43696</v>
+        <v>43697</v>
       </c>
       <c r="C144">
-        <v>26134.53922637629</v>
+        <v>25965.96867615886</v>
       </c>
       <c r="D144">
-        <v>246.6501502728679</v>
+        <v>-168.5705502174278</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>50</v>
       </c>
       <c r="B145" s="2">
-        <v>43693</v>
+        <v>43696</v>
       </c>
       <c r="C145">
-        <v>25887.88907610342</v>
+        <v>26134.53922637629</v>
       </c>
       <c r="D145">
-        <v>309.7174424262412</v>
+        <v>246.6501502728679</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>49</v>
       </c>
       <c r="B146" s="2">
-        <v>43692</v>
+        <v>43693</v>
       </c>
       <c r="C146">
-        <v>25578.17163367718</v>
+        <v>25887.88907610342</v>
       </c>
       <c r="D146">
-        <v>98.78892112118046</v>
+        <v>309.7174424262412</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>48</v>
       </c>
       <c r="B147" s="2">
-        <v>43691</v>
+        <v>43692</v>
       </c>
       <c r="C147">
-        <v>25479.382712556</v>
+        <v>25578.17163367718</v>
       </c>
       <c r="D147">
-        <v>-804.2961798545402</v>
+        <v>98.78892112118046</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>47</v>
       </c>
       <c r="B148" s="2">
-        <v>43690</v>
+        <v>43691</v>
       </c>
       <c r="C148">
-        <v>26283.67889241054</v>
+        <v>25479.382712556</v>
       </c>
       <c r="D148">
-        <v>379.7669667843438</v>
+        <v>-804.2961798545402</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>46</v>
       </c>
       <c r="B149" s="2">
-        <v>43689</v>
+        <v>43690</v>
       </c>
       <c r="C149">
-        <v>25903.91192562619</v>
+        <v>26283.67889241054</v>
       </c>
       <c r="D149">
-        <v>-383.7379206025762</v>
+        <v>379.7669667843438</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2478,13 +2478,13 @@
         <v>45</v>
       </c>
       <c r="B150" s="2">
-        <v>43686</v>
+        <v>43689</v>
       </c>
       <c r="C150">
-        <v>26287.64984622877</v>
+        <v>25903.91192562619</v>
       </c>
       <c r="D150">
-        <v>-95.76068733836655</v>
+        <v>-383.7379206025762</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2492,13 +2492,13 @@
         <v>44</v>
       </c>
       <c r="B151" s="2">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="C151">
-        <v>26383.41053356714</v>
+        <v>26287.64984622877</v>
       </c>
       <c r="D151">
-        <v>375.1890097778305</v>
+        <v>-95.76068733836655</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>43</v>
       </c>
       <c r="B152" s="2">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="C152">
-        <v>26008.22152378931</v>
+        <v>26383.41053356714</v>
       </c>
       <c r="D152">
-        <v>-23.2628037515824</v>
+        <v>375.1890097778305</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>42</v>
       </c>
       <c r="B153" s="2">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="C153">
-        <v>26031.48432754089</v>
+        <v>26008.22152378931</v>
       </c>
       <c r="D153">
-        <v>314.3530477802306</v>
+        <v>-23.2628037515824</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>41</v>
       </c>
       <c r="B154" s="2">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="C154">
-        <v>25717.13127976066</v>
+        <v>26031.48432754089</v>
       </c>
       <c r="D154">
-        <v>-769.3680634345073</v>
+        <v>314.3530477802306</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2548,13 +2548,13 @@
         <v>40</v>
       </c>
       <c r="B155" s="2">
-        <v>43679</v>
+        <v>43682</v>
       </c>
       <c r="C155">
-        <v>26486.49934319517</v>
+        <v>25717.13127976066</v>
       </c>
       <c r="D155">
-        <v>-95.35375782667688</v>
+        <v>-769.3680634345073</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>39</v>
       </c>
       <c r="B156" s="2">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="C156">
-        <v>26581.85310102184</v>
+        <v>26486.49934319517</v>
       </c>
       <c r="D156">
-        <v>-277.0884777472565</v>
+        <v>-95.35375782667688</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>38</v>
       </c>
       <c r="B157" s="2">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="C157">
-        <v>26858.9415787691</v>
+        <v>26581.85310102184</v>
       </c>
       <c r="D157">
-        <v>-340.9567428227965</v>
+        <v>-277.0884777472565</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="B158" s="2">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="C158">
-        <v>27199.8983215919</v>
+        <v>26858.9415787691</v>
       </c>
       <c r="D158">
-        <v>-20.37428243443719</v>
+        <v>-340.9567428227965</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>36</v>
       </c>
       <c r="B159" s="2">
-        <v>43675</v>
+        <v>43676</v>
       </c>
       <c r="C159">
-        <v>27220.27260402633</v>
+        <v>27199.8983215919</v>
       </c>
       <c r="D159">
-        <v>28.90352499946312</v>
+        <v>-20.37428243443719</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>35</v>
       </c>
       <c r="B160" s="2">
-        <v>43672</v>
+        <v>43675</v>
       </c>
       <c r="C160">
-        <v>27191.36907902687</v>
+        <v>27220.27260402633</v>
       </c>
       <c r="D160">
-        <v>43.51432911667143</v>
+        <v>28.90352499946312</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>34</v>
       </c>
       <c r="B161" s="2">
-        <v>43671</v>
+        <v>43672</v>
       </c>
       <c r="C161">
-        <v>27147.8547499102</v>
+        <v>27191.36907902687</v>
       </c>
       <c r="D161">
-        <v>-121.4413306052338</v>
+        <v>43.51432911667143</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2646,13 +2646,13 @@
         <v>33</v>
       </c>
       <c r="B162" s="2">
-        <v>43670</v>
+        <v>43671</v>
       </c>
       <c r="C162">
-        <v>27269.29608051543</v>
+        <v>27147.8547499102</v>
       </c>
       <c r="D162">
-        <v>-79.8599166690874</v>
+        <v>-121.4413306052338</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2660,13 +2660,13 @@
         <v>32</v>
       </c>
       <c r="B163" s="2">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C163">
-        <v>27349.15599718452</v>
+        <v>27269.29608051543</v>
       </c>
       <c r="D163">
-        <v>176.8447836217747</v>
+        <v>-79.8599166690874</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2674,13 +2674,13 @@
         <v>31</v>
       </c>
       <c r="B164" s="2">
-        <v>43668</v>
+        <v>43669</v>
       </c>
       <c r="C164">
-        <v>27172.31121356275</v>
+        <v>27349.15599718452</v>
       </c>
       <c r="D164">
-        <v>15.3276782736466</v>
+        <v>176.8447836217747</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2688,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="B165" s="2">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="C165">
-        <v>27156.9835352891</v>
+        <v>27172.31121356275</v>
       </c>
       <c r="D165">
-        <v>-64.6339707733714</v>
+        <v>15.3276782736466</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2702,13 +2702,13 @@
         <v>29</v>
       </c>
       <c r="B166" s="2">
-        <v>43664</v>
+        <v>43665</v>
       </c>
       <c r="C166">
-        <v>27221.61750606247</v>
+        <v>27156.9835352891</v>
       </c>
       <c r="D166">
-        <v>2.984149752395751</v>
+        <v>-64.6339707733714</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2716,13 +2716,13 @@
         <v>28</v>
       </c>
       <c r="B167" s="2">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="C167">
-        <v>27218.63335631007</v>
+        <v>27221.61750606247</v>
       </c>
       <c r="D167">
-        <v>-115.5069418931016</v>
+        <v>2.984149752395751</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2730,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="B168" s="2">
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="C168">
-        <v>27334.14029820318</v>
+        <v>27218.63335631007</v>
       </c>
       <c r="D168">
-        <v>-24.10379140908117</v>
+        <v>-115.5069418931016</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>26</v>
       </c>
       <c r="B169" s="2">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="C169">
-        <v>27358.24408961226</v>
+        <v>27334.14029820318</v>
       </c>
       <c r="D169">
-        <v>29.33283563428995</v>
+        <v>-24.10379140908117</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2758,13 +2758,13 @@
         <v>25</v>
       </c>
       <c r="B170" s="2">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="C170">
-        <v>27328.91125397797</v>
+        <v>27358.24408961226</v>
       </c>
       <c r="D170">
-        <v>241.1396464687459</v>
+        <v>29.33283563428995</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2772,13 +2772,13 @@
         <v>24</v>
       </c>
       <c r="B171" s="2">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="C171">
-        <v>27087.77160750922</v>
+        <v>27328.91125397797</v>
       </c>
       <c r="D171">
-        <v>228.7730586084872</v>
+        <v>241.1396464687459</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2786,13 +2786,13 @@
         <v>23</v>
       </c>
       <c r="B172" s="2">
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="C172">
-        <v>26858.99854890073</v>
+        <v>27087.77160750922</v>
       </c>
       <c r="D172">
-        <v>72.96517430936365</v>
+        <v>228.7730586084872</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2800,13 +2800,13 @@
         <v>22</v>
       </c>
       <c r="B173" s="2">
-        <v>43655</v>
+        <v>43656</v>
       </c>
       <c r="C173">
-        <v>26786.03337459137</v>
+        <v>26858.99854890073</v>
       </c>
       <c r="D173">
-        <v>-22.21156917972257</v>
+        <v>72.96517430936365</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2814,13 +2814,13 @@
         <v>21</v>
       </c>
       <c r="B174" s="2">
-        <v>43654</v>
+        <v>43655</v>
       </c>
       <c r="C174">
-        <v>26808.24494377109</v>
+        <v>26786.03337459137</v>
       </c>
       <c r="D174">
-        <v>-119.1964361324171</v>
+        <v>-22.21156917972257</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2828,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="B175" s="2">
-        <v>43651</v>
+        <v>43654</v>
       </c>
       <c r="C175">
-        <v>26927.44137990351</v>
+        <v>26808.24494377109</v>
       </c>
       <c r="D175">
-        <v>-34.07831195644758</v>
+        <v>-119.1964361324171</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2842,13 +2842,13 @@
         <v>19</v>
       </c>
       <c r="B176" s="2">
-        <v>43649</v>
+        <v>43651</v>
       </c>
       <c r="C176">
-        <v>26961.51969185996</v>
+        <v>26927.44137990351</v>
       </c>
       <c r="D176">
-        <v>174.1658310031526</v>
+        <v>-34.07831195644758</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2856,13 +2856,13 @@
         <v>18</v>
       </c>
       <c r="B177" s="2">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="C177">
-        <v>26787.35386085681</v>
+        <v>26961.51969185996</v>
       </c>
       <c r="D177">
-        <v>67.27697795179483</v>
+        <v>174.1658310031526</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2870,13 +2870,13 @@
         <v>17</v>
       </c>
       <c r="B178" s="2">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="C178">
-        <v>26720.07688290501</v>
+        <v>26787.35386085681</v>
       </c>
       <c r="D178">
-        <v>133.0998611151481</v>
+        <v>67.27697795179483</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2884,13 +2884,13 @@
         <v>16</v>
       </c>
       <c r="B179" s="2">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C179">
-        <v>26586.97702178986</v>
+        <v>26720.07688290501</v>
       </c>
       <c r="D179">
-        <v>63.90827981085022</v>
+        <v>133.0998611151481</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2898,13 +2898,13 @@
         <v>15</v>
       </c>
       <c r="B180" s="2">
-        <v>43643</v>
+        <v>43644</v>
       </c>
       <c r="C180">
-        <v>26523.06874197901</v>
+        <v>26586.97702178986</v>
       </c>
       <c r="D180">
-        <v>-15.91569141802756</v>
+        <v>63.90827981085022</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>14</v>
       </c>
       <c r="B181" s="2">
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="C181">
-        <v>26538.98443339704</v>
+        <v>26523.06874197901</v>
       </c>
       <c r="D181">
-        <v>-10.53811792105625</v>
+        <v>-15.91569141802756</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2926,13 +2926,13 @@
         <v>13</v>
       </c>
       <c r="B182" s="2">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="C182">
-        <v>26549.5225513181</v>
+        <v>26538.98443339704</v>
       </c>
       <c r="D182">
-        <v>-181.0327665129262</v>
+        <v>-10.53811792105625</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2940,13 +2940,13 @@
         <v>12</v>
       </c>
       <c r="B183" s="2">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="C183">
-        <v>26730.55531783102</v>
+        <v>26549.5225513181</v>
       </c>
       <c r="D183">
-        <v>8.375965782288404</v>
+        <v>-181.0327665129262</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2954,13 +2954,13 @@
         <v>11</v>
       </c>
       <c r="B184" s="2">
-        <v>43637</v>
+        <v>43640</v>
       </c>
       <c r="C184">
-        <v>26722.17935204873</v>
+        <v>26730.55531783102</v>
       </c>
       <c r="D184">
-        <v>-29.19312316862488</v>
+        <v>8.375965782288404</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2968,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="B185" s="2">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="C185">
-        <v>26751.37247521736</v>
+        <v>26722.17935204873</v>
       </c>
       <c r="D185">
-        <v>247.6464493606691</v>
+        <v>-29.19312316862488</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2982,13 +2982,13 @@
         <v>9</v>
       </c>
       <c r="B186" s="2">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="C186">
-        <v>26503.72602585669</v>
+        <v>26751.37247521736</v>
       </c>
       <c r="D186">
-        <v>32.85955806893253</v>
+        <v>247.6464493606691</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2996,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="B187" s="2">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="C187">
-        <v>26470.86646778776</v>
+        <v>26503.72602585669</v>
       </c>
       <c r="D187">
-        <v>358.7524485848298</v>
+        <v>32.85955806893253</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3010,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="B188" s="2">
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="C188">
-        <v>26112.11401920293</v>
+        <v>26470.86646778776</v>
       </c>
       <c r="D188">
-        <v>20.87887502893864</v>
+        <v>358.7524485848298</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3024,13 +3024,13 @@
         <v>6</v>
       </c>
       <c r="B189" s="2">
-        <v>43630</v>
+        <v>43633</v>
       </c>
       <c r="C189">
-        <v>26091.23514417399</v>
+        <v>26112.11401920293</v>
       </c>
       <c r="D189">
-        <v>-21.19424540050386</v>
+        <v>20.87887502893864</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3038,13 +3038,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="2">
-        <v>43629</v>
+        <v>43630</v>
       </c>
       <c r="C190">
-        <v>26112.42938957449</v>
+        <v>26091.23514417399</v>
       </c>
       <c r="D190">
-        <v>103.1912202218191</v>
+        <v>-21.19424540050386</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3052,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C191">
-        <v>26009.23816935267</v>
+        <v>26112.42938957449</v>
       </c>
       <c r="D191">
-        <v>-39.71021639823084</v>
+        <v>103.1912202218191</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="B192" s="2">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="C192">
-        <v>26048.9483857509</v>
+        <v>26009.23816935267</v>
       </c>
       <c r="D192">
-        <v>-10.90571091329184</v>
+        <v>-39.71021639823084</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3080,13 +3080,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="2">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="C193">
-        <v>26059.8540966642</v>
+        <v>26048.9483857509</v>
       </c>
       <c r="D193">
-        <v>78.95721136900102</v>
+        <v>-10.90571091329184</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3094,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="B194" s="2">
-        <v>43623</v>
+        <v>43626</v>
       </c>
       <c r="C194">
-        <v>25980.89688529519</v>
+        <v>26059.8540966642</v>
       </c>
       <c r="D194">
-        <v>252.0324712808215</v>
+        <v>78.95721136900102</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="B195" s="2">
-        <v>43622</v>
+        <v>43623</v>
       </c>
       <c r="C195">
-        <v>25728.86441401437</v>
+        <v>25980.89688529519</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -406,13 +406,13 @@
         <v>193</v>
       </c>
       <c r="B2" s="2">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="C2">
-        <v>23185.1819472352</v>
+        <v>20179.35912905206</v>
       </c>
       <c r="D2">
-        <v>1988.501073606654</v>
+        <v>-3005.822818183144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>192</v>
       </c>
       <c r="B3" s="2">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="C3">
-        <v>21196.68087362855</v>
+        <v>23185.1819472352</v>
       </c>
       <c r="D3">
-        <v>-2352.33403714493</v>
+        <v>1988.501073606654</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>191</v>
       </c>
       <c r="B4" s="2">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="C4">
-        <v>23549.01491077348</v>
+        <v>21196.68087362855</v>
       </c>
       <c r="D4">
-        <v>-1471.674143342574</v>
+        <v>-2352.33403714493</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>190</v>
       </c>
       <c r="B5" s="2">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="C5">
-        <v>25020.68905411605</v>
+        <v>23549.01491077348</v>
       </c>
       <c r="D5">
-        <v>1181.563243005403</v>
+        <v>-1471.674143342574</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>189</v>
       </c>
       <c r="B6" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="C6">
-        <v>23839.12581111065</v>
+        <v>25020.68905411605</v>
       </c>
       <c r="D6">
-        <v>-2027.687707366509</v>
+        <v>1181.563243005403</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>188</v>
       </c>
       <c r="B7" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="C7">
-        <v>25866.81351847716</v>
+        <v>23839.12581111065</v>
       </c>
       <c r="D7">
-        <v>-251.2789734683429</v>
+        <v>-2027.687707366509</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>187</v>
       </c>
       <c r="B8" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C8">
-        <v>26118.0924919455</v>
+        <v>25866.81351847716</v>
       </c>
       <c r="D8">
-        <v>-971.0355472693591</v>
+        <v>-251.2789734683429</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>186</v>
       </c>
       <c r="B9" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C9">
-        <v>27089.12803921486</v>
+        <v>26118.0924919455</v>
       </c>
       <c r="D9">
-        <v>1181.146818471771</v>
+        <v>-971.0355472693591</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>185</v>
       </c>
       <c r="B10" s="2">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C10">
-        <v>25907.98122074309</v>
+        <v>27089.12803921486</v>
       </c>
       <c r="D10">
-        <v>-797.2766457778962</v>
+        <v>1181.146818471771</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>184</v>
       </c>
       <c r="B11" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="C11">
-        <v>26705.25786652099</v>
+        <v>25907.98122074309</v>
       </c>
       <c r="D11">
-        <v>1270.739132628769</v>
+        <v>-797.2766457778962</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>183</v>
       </c>
       <c r="B12" s="2">
-        <v>43889</v>
+        <v>43892</v>
       </c>
       <c r="C12">
-        <v>25434.51873389222</v>
+        <v>26705.25786652099</v>
       </c>
       <c r="D12">
-        <v>-318.7275400308972</v>
+        <v>1270.739132628769</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>182</v>
       </c>
       <c r="B13" s="2">
-        <v>43888</v>
+        <v>43889</v>
       </c>
       <c r="C13">
-        <v>25753.24627392312</v>
+        <v>25434.51873389222</v>
       </c>
       <c r="D13">
-        <v>-1208.07198782856</v>
+        <v>-318.7275400308972</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>181</v>
       </c>
       <c r="B14" s="2">
-        <v>43887</v>
+        <v>43888</v>
       </c>
       <c r="C14">
-        <v>26961.31826175168</v>
+        <v>25753.24627392312</v>
       </c>
       <c r="D14">
-        <v>-122.6892477744223</v>
+        <v>-1208.07198782856</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>180</v>
       </c>
       <c r="B15" s="2">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="C15">
-        <v>27084.0075095261</v>
+        <v>26961.31826175168</v>
       </c>
       <c r="D15">
-        <v>-879.2458137492358</v>
+        <v>-122.6892477744223</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>179</v>
       </c>
       <c r="B16" s="2">
-        <v>43885</v>
+        <v>43886</v>
       </c>
       <c r="C16">
-        <v>27963.25332327533</v>
+        <v>27084.0075095261</v>
       </c>
       <c r="D16">
-        <v>-1030.440473817504</v>
+        <v>-879.2458137492358</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>178</v>
       </c>
       <c r="B17" s="2">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="C17">
-        <v>28993.69379709284</v>
+        <v>27963.25332327533</v>
       </c>
       <c r="D17">
-        <v>-221.4388323761414</v>
+        <v>-1030.440473817504</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,13 +630,13 @@
         <v>177</v>
       </c>
       <c r="B18" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="C18">
-        <v>29215.13262946898</v>
+        <v>28993.69379709284</v>
       </c>
       <c r="D18">
-        <v>-132.0499829749933</v>
+        <v>-221.4388323761414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -644,13 +644,13 @@
         <v>176</v>
       </c>
       <c r="B19" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="C19">
-        <v>29347.18261244397</v>
+        <v>29215.13262946898</v>
       </c>
       <c r="D19">
-        <v>114.4177272334746</v>
+        <v>-132.0499829749933</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -658,13 +658,13 @@
         <v>175</v>
       </c>
       <c r="B20" s="2">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="C20">
-        <v>29232.7648852105</v>
+        <v>29347.18261244397</v>
       </c>
       <c r="D20">
-        <v>-162.7697700282806</v>
+        <v>114.4177272334746</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -672,13 +672,13 @@
         <v>174</v>
       </c>
       <c r="B21" s="2">
-        <v>43875</v>
+        <v>43879</v>
       </c>
       <c r="C21">
-        <v>29395.53465523878</v>
+        <v>29232.7648852105</v>
       </c>
       <c r="D21">
-        <v>-34.70905269956347</v>
+        <v>-162.7697700282806</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -686,13 +686,13 @@
         <v>173</v>
       </c>
       <c r="B22" s="2">
-        <v>43874</v>
+        <v>43875</v>
       </c>
       <c r="C22">
-        <v>29430.24370793834</v>
+        <v>29395.53465523878</v>
       </c>
       <c r="D22">
-        <v>-120.6898674403274</v>
+        <v>-34.70905269956347</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -700,13 +700,13 @@
         <v>172</v>
       </c>
       <c r="B23" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="C23">
-        <v>29550.93357537867</v>
+        <v>29430.24370793834</v>
       </c>
       <c r="D23">
-        <v>273.3047115043992</v>
+        <v>-120.6898674403274</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -714,13 +714,13 @@
         <v>171</v>
       </c>
       <c r="B24" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C24">
-        <v>29277.62886387427</v>
+        <v>29550.93357537867</v>
       </c>
       <c r="D24">
-        <v>-0.7121266454669239</v>
+        <v>273.3047115043992</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -728,13 +728,13 @@
         <v>170</v>
       </c>
       <c r="B25" s="2">
-        <v>43871</v>
+        <v>43872</v>
       </c>
       <c r="C25">
-        <v>29278.34099051974</v>
+        <v>29277.62886387427</v>
       </c>
       <c r="D25">
-        <v>175.2414813457253</v>
+        <v>-0.7121266454669239</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -742,13 +742,13 @@
         <v>169</v>
       </c>
       <c r="B26" s="2">
-        <v>43868</v>
+        <v>43871</v>
       </c>
       <c r="C26">
-        <v>29103.09950917401</v>
+        <v>29278.34099051974</v>
       </c>
       <c r="D26">
-        <v>-276.9060376828456</v>
+        <v>175.2414813457253</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,13 +756,13 @@
         <v>168</v>
       </c>
       <c r="B27" s="2">
-        <v>43867</v>
+        <v>43868</v>
       </c>
       <c r="C27">
-        <v>29380.00554685686</v>
+        <v>29103.09950917401</v>
       </c>
       <c r="D27">
-        <v>87.0829155015781</v>
+        <v>-276.9060376828456</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -770,13 +770,13 @@
         <v>167</v>
       </c>
       <c r="B28" s="2">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="C28">
-        <v>29292.92263135528</v>
+        <v>29380.00554685686</v>
       </c>
       <c r="D28">
-        <v>483.2966167167142</v>
+        <v>87.0829155015781</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -784,13 +784,13 @@
         <v>166</v>
       </c>
       <c r="B29" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="C29">
-        <v>28809.62601463856</v>
+        <v>29292.92263135528</v>
       </c>
       <c r="D29">
-        <v>411.6431118666769</v>
+        <v>483.2966167167142</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -798,13 +798,13 @@
         <v>165</v>
       </c>
       <c r="B30" s="2">
-        <v>43864</v>
+        <v>43865</v>
       </c>
       <c r="C30">
-        <v>28397.98290277189</v>
+        <v>28809.62601463856</v>
       </c>
       <c r="D30">
-        <v>152.8895214844742</v>
+        <v>411.6431118666769</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -812,13 +812,13 @@
         <v>164</v>
       </c>
       <c r="B31" s="2">
-        <v>43861</v>
+        <v>43864</v>
       </c>
       <c r="C31">
-        <v>28245.09338128741</v>
+        <v>28397.98290277189</v>
       </c>
       <c r="D31">
-        <v>-612.0118123434004</v>
+        <v>152.8895214844742</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -826,13 +826,13 @@
         <v>163</v>
       </c>
       <c r="B32" s="2">
-        <v>43860</v>
+        <v>43861</v>
       </c>
       <c r="C32">
-        <v>28857.10519363081</v>
+        <v>28245.09338128741</v>
       </c>
       <c r="D32">
-        <v>122.8967818253841</v>
+        <v>-612.0118123434004</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -840,13 +840,13 @@
         <v>162</v>
       </c>
       <c r="B33" s="2">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="C33">
-        <v>28734.20841180543</v>
+        <v>28857.10519363081</v>
       </c>
       <c r="D33">
-        <v>10.2749701701614</v>
+        <v>122.8967818253841</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -854,13 +854,13 @@
         <v>161</v>
       </c>
       <c r="B34" s="2">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="C34">
-        <v>28723.93344163527</v>
+        <v>28734.20841180543</v>
       </c>
       <c r="D34">
-        <v>194.3088418317966</v>
+        <v>10.2749701701614</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -868,13 +868,13 @@
         <v>160</v>
       </c>
       <c r="B35" s="2">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="C35">
-        <v>28529.62459980347</v>
+        <v>28723.93344163527</v>
       </c>
       <c r="D35">
-        <v>-460.3390100988836</v>
+        <v>194.3088418317966</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -882,13 +882,13 @@
         <v>159</v>
       </c>
       <c r="B36" s="2">
-        <v>43854</v>
+        <v>43857</v>
       </c>
       <c r="C36">
-        <v>28989.96360990236</v>
+        <v>28529.62459980347</v>
       </c>
       <c r="D36">
-        <v>-169.1463554764669</v>
+        <v>-460.3390100988836</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -896,13 +896,13 @@
         <v>158</v>
       </c>
       <c r="B37" s="2">
-        <v>43853</v>
+        <v>43854</v>
       </c>
       <c r="C37">
-        <v>29159.10996537882</v>
+        <v>28989.96360990236</v>
       </c>
       <c r="D37">
-        <v>-28.31822471848136</v>
+        <v>-169.1463554764669</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -910,13 +910,13 @@
         <v>157</v>
       </c>
       <c r="B38" s="2">
-        <v>43852</v>
+        <v>43853</v>
       </c>
       <c r="C38">
-        <v>29187.4281900973</v>
+        <v>29159.10996537882</v>
       </c>
       <c r="D38">
-        <v>-11.39199167974948</v>
+        <v>-28.31822471848136</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -924,13 +924,13 @@
         <v>156</v>
       </c>
       <c r="B39" s="2">
-        <v>43851</v>
+        <v>43852</v>
       </c>
       <c r="C39">
-        <v>29198.82018177705</v>
+        <v>29187.4281900973</v>
       </c>
       <c r="D39">
-        <v>-142.9000801883485</v>
+        <v>-11.39199167974948</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -938,13 +938,13 @@
         <v>155</v>
       </c>
       <c r="B40" s="2">
-        <v>43847</v>
+        <v>43851</v>
       </c>
       <c r="C40">
-        <v>29341.7202619654</v>
+        <v>29198.82018177705</v>
       </c>
       <c r="D40">
-        <v>42.62586634949912</v>
+        <v>-142.9000801883485</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -952,13 +952,13 @@
         <v>154</v>
       </c>
       <c r="B41" s="2">
-        <v>43846</v>
+        <v>43847</v>
       </c>
       <c r="C41">
-        <v>29299.0943956159</v>
+        <v>29341.7202619654</v>
       </c>
       <c r="D41">
-        <v>262.2999810765941</v>
+        <v>42.62586634949912</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -966,13 +966,13 @@
         <v>153</v>
       </c>
       <c r="B42" s="2">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="C42">
-        <v>29036.79441453931</v>
+        <v>29299.0943956159</v>
       </c>
       <c r="D42">
-        <v>102.4784153605033</v>
+        <v>262.2999810765941</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -980,13 +980,13 @@
         <v>152</v>
       </c>
       <c r="B43" s="2">
-        <v>43844</v>
+        <v>43845</v>
       </c>
       <c r="C43">
-        <v>28934.31599917881</v>
+        <v>29036.79441453931</v>
       </c>
       <c r="D43">
-        <v>30.58753496201098</v>
+        <v>102.4784153605033</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -994,13 +994,13 @@
         <v>151</v>
       </c>
       <c r="B44" s="2">
-        <v>43843</v>
+        <v>43844</v>
       </c>
       <c r="C44">
-        <v>28903.72846421679</v>
+        <v>28934.31599917881</v>
       </c>
       <c r="D44">
-        <v>78.13385732366078</v>
+        <v>30.58753496201098</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>150</v>
       </c>
       <c r="B45" s="2">
-        <v>43840</v>
+        <v>43843</v>
       </c>
       <c r="C45">
-        <v>28825.59460689313</v>
+        <v>28903.72846421679</v>
       </c>
       <c r="D45">
-        <v>-132.2554823783867</v>
+        <v>78.13385732366078</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>149</v>
       </c>
       <c r="B46" s="2">
-        <v>43839</v>
+        <v>43840</v>
       </c>
       <c r="C46">
-        <v>28957.85008927152</v>
+        <v>28825.59460689313</v>
       </c>
       <c r="D46">
-        <v>212.0441863829365</v>
+        <v>-132.2554823783867</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>148</v>
       </c>
       <c r="B47" s="2">
-        <v>43838</v>
+        <v>43839</v>
       </c>
       <c r="C47">
-        <v>28745.80590288858</v>
+        <v>28957.85008927152</v>
       </c>
       <c r="D47">
-        <v>164.0943255888378</v>
+        <v>212.0441863829365</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="2">
-        <v>43837</v>
+        <v>43838</v>
       </c>
       <c r="C48">
-        <v>28581.71157729975</v>
+        <v>28745.80590288858</v>
       </c>
       <c r="D48">
-        <v>-121.7736563731196</v>
+        <v>164.0943255888378</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>146</v>
       </c>
       <c r="B49" s="2">
-        <v>43836</v>
+        <v>43837</v>
       </c>
       <c r="C49">
-        <v>28703.48523367287</v>
+        <v>28581.71157729975</v>
       </c>
       <c r="D49">
-        <v>75.72279996691213</v>
+        <v>-121.7736563731196</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>145</v>
       </c>
       <c r="B50" s="2">
-        <v>43833</v>
+        <v>43836</v>
       </c>
       <c r="C50">
-        <v>28627.76243370595</v>
+        <v>28703.48523367287</v>
       </c>
       <c r="D50">
-        <v>-245.717603475252</v>
+        <v>75.72279996691213</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>144</v>
       </c>
       <c r="B51" s="2">
-        <v>43832</v>
+        <v>43833</v>
       </c>
       <c r="C51">
-        <v>28873.48003718121</v>
+        <v>28627.76243370595</v>
       </c>
       <c r="D51">
-        <v>345.1440474980809</v>
+        <v>-245.717603475252</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>143</v>
       </c>
       <c r="B52" s="2">
-        <v>43830</v>
+        <v>43832</v>
       </c>
       <c r="C52">
-        <v>28528.33598968312</v>
+        <v>28873.48003718121</v>
       </c>
       <c r="D52">
-        <v>59.93732599262876</v>
+        <v>345.1440474980809</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>142</v>
       </c>
       <c r="B53" s="2">
-        <v>43829</v>
+        <v>43830</v>
       </c>
       <c r="C53">
-        <v>28468.3986636905</v>
+        <v>28528.33598968312</v>
       </c>
       <c r="D53">
-        <v>-176.7593284243449</v>
+        <v>59.93732599262876</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>141</v>
       </c>
       <c r="B54" s="2">
-        <v>43826</v>
+        <v>43829</v>
       </c>
       <c r="C54">
-        <v>28645.15799211484</v>
+        <v>28468.3986636905</v>
       </c>
       <c r="D54">
-        <v>21.26138876994082</v>
+        <v>-176.7593284243449</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>140</v>
       </c>
       <c r="B55" s="2">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="C55">
-        <v>28623.8966033449</v>
+        <v>28645.15799211484</v>
       </c>
       <c r="D55">
-        <v>106.6128191992721</v>
+        <v>21.26138876994082</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>139</v>
       </c>
       <c r="B56" s="2">
-        <v>43823</v>
+        <v>43825</v>
       </c>
       <c r="C56">
-        <v>28517.28378414563</v>
+        <v>28623.8966033449</v>
       </c>
       <c r="D56">
-        <v>-34.68802800813501</v>
+        <v>106.6128191992721</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>138</v>
       </c>
       <c r="B57" s="2">
-        <v>43822</v>
+        <v>43823</v>
       </c>
       <c r="C57">
-        <v>28551.97181215376</v>
+        <v>28517.28378414563</v>
       </c>
       <c r="D57">
-        <v>98.03610152455803</v>
+        <v>-34.68802800813501</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>137</v>
       </c>
       <c r="B58" s="2">
-        <v>43819</v>
+        <v>43822</v>
       </c>
       <c r="C58">
-        <v>28453.9357106292</v>
+        <v>28551.97181215376</v>
       </c>
       <c r="D58">
-        <v>78.1304662444054</v>
+        <v>98.03610152455803</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>136</v>
       </c>
       <c r="B59" s="2">
-        <v>43818</v>
+        <v>43819</v>
       </c>
       <c r="C59">
-        <v>28375.8052443848</v>
+        <v>28453.9357106292</v>
       </c>
       <c r="D59">
-        <v>131.133035141982</v>
+        <v>78.1304662444054</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>135</v>
       </c>
       <c r="B60" s="2">
-        <v>43817</v>
+        <v>43818</v>
       </c>
       <c r="C60">
-        <v>28244.67220924282</v>
+        <v>28375.8052443848</v>
       </c>
       <c r="D60">
-        <v>-19.83781369486678</v>
+        <v>131.133035141982</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>134</v>
       </c>
       <c r="B61" s="2">
-        <v>43816</v>
+        <v>43817</v>
       </c>
       <c r="C61">
-        <v>28264.51002293768</v>
+        <v>28244.67220924282</v>
       </c>
       <c r="D61">
-        <v>29.71534937527758</v>
+        <v>-19.83781369486678</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>133</v>
       </c>
       <c r="B62" s="2">
-        <v>43815</v>
+        <v>43816</v>
       </c>
       <c r="C62">
-        <v>28234.79467356241</v>
+        <v>28264.51002293768</v>
       </c>
       <c r="D62">
-        <v>97.61967699092565</v>
+        <v>29.71534937527758</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>132</v>
       </c>
       <c r="B63" s="2">
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="C63">
-        <v>28137.17499657148</v>
+        <v>28234.79467356241</v>
       </c>
       <c r="D63">
-        <v>6.81606932080831</v>
+        <v>97.61967699092565</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>131</v>
       </c>
       <c r="B64" s="2">
-        <v>43811</v>
+        <v>43812</v>
       </c>
       <c r="C64">
-        <v>28130.35892725067</v>
+        <v>28137.17499657148</v>
       </c>
       <c r="D64">
-        <v>222.5904428942267</v>
+        <v>6.81606932080831</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>130</v>
       </c>
       <c r="B65" s="2">
-        <v>43810</v>
+        <v>43811</v>
       </c>
       <c r="C65">
-        <v>27907.76848435645</v>
+        <v>28130.35892725067</v>
       </c>
       <c r="D65">
-        <v>23.53409009270399</v>
+        <v>222.5904428942267</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>129</v>
       </c>
       <c r="B66" s="2">
-        <v>43809</v>
+        <v>43810</v>
       </c>
       <c r="C66">
-        <v>27884.23439426374</v>
+        <v>27907.76848435645</v>
       </c>
       <c r="D66">
-        <v>-26.00957795548675</v>
+        <v>23.53409009270399</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>128</v>
       </c>
       <c r="B67" s="2">
-        <v>43808</v>
+        <v>43809</v>
       </c>
       <c r="C67">
-        <v>27910.24397221923</v>
+        <v>27884.23439426374</v>
       </c>
       <c r="D67">
-        <v>-103.1905420059556</v>
+        <v>-26.00957795548675</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>127</v>
       </c>
       <c r="B68" s="2">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="C68">
-        <v>28013.43451422518</v>
+        <v>27910.24397221923</v>
       </c>
       <c r="D68">
-        <v>330.4945850772419</v>
+        <v>-103.1905420059556</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>126</v>
       </c>
       <c r="B69" s="2">
-        <v>43804</v>
+        <v>43805</v>
       </c>
       <c r="C69">
-        <v>27682.93992914794</v>
+        <v>28013.43451422518</v>
       </c>
       <c r="D69">
-        <v>28.82417374468787</v>
+        <v>330.4945850772419</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1358,13 +1358,13 @@
         <v>125</v>
       </c>
       <c r="B70" s="2">
-        <v>43803</v>
+        <v>43804</v>
       </c>
       <c r="C70">
-        <v>27654.11575540325</v>
+        <v>27682.93992914794</v>
       </c>
       <c r="D70">
-        <v>147.3763048169276</v>
+        <v>28.82417374468787</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1372,13 +1372,13 @@
         <v>124</v>
       </c>
       <c r="B71" s="2">
-        <v>43802</v>
+        <v>43803</v>
       </c>
       <c r="C71">
-        <v>27506.73945058633</v>
+        <v>27654.11575540325</v>
       </c>
       <c r="D71">
-        <v>-285.6373885720095</v>
+        <v>147.3763048169276</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>123</v>
       </c>
       <c r="B72" s="2">
-        <v>43801</v>
+        <v>43802</v>
       </c>
       <c r="C72">
-        <v>27792.37683915834</v>
+        <v>27506.73945058633</v>
       </c>
       <c r="D72">
-        <v>-268.9614171829708</v>
+        <v>-285.6373885720095</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>122</v>
       </c>
       <c r="B73" s="2">
-        <v>43798</v>
+        <v>43801</v>
       </c>
       <c r="C73">
-        <v>28061.33825634131</v>
+        <v>27792.37683915834</v>
       </c>
       <c r="D73">
-        <v>-105.8471135014297</v>
+        <v>-268.9614171829708</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>121</v>
       </c>
       <c r="B74" s="2">
-        <v>43796</v>
+        <v>43798</v>
       </c>
       <c r="C74">
-        <v>28167.18536984274</v>
+        <v>28061.33825634131</v>
       </c>
       <c r="D74">
-        <v>50.89942153799348</v>
+        <v>-105.8471135014297</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1428,13 +1428,13 @@
         <v>120</v>
       </c>
       <c r="B75" s="2">
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="C75">
-        <v>28116.28594830474</v>
+        <v>28167.18536984274</v>
       </c>
       <c r="D75">
-        <v>50.3595617191495</v>
+        <v>50.89942153799348</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>119</v>
       </c>
       <c r="B76" s="2">
-        <v>43794</v>
+        <v>43795</v>
       </c>
       <c r="C76">
-        <v>28065.92638658559</v>
+        <v>28116.28594830474</v>
       </c>
       <c r="D76">
-        <v>192.5156391169476</v>
+        <v>50.3595617191495</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1456,13 +1456,13 @@
         <v>118</v>
       </c>
       <c r="B77" s="2">
-        <v>43791</v>
+        <v>43794</v>
       </c>
       <c r="C77">
-        <v>27873.41074746865</v>
+        <v>28065.92638658559</v>
       </c>
       <c r="D77">
-        <v>107.389376350744</v>
+        <v>192.5156391169476</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1470,13 +1470,13 @@
         <v>117</v>
       </c>
       <c r="B78" s="2">
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="C78">
-        <v>27766.0213711179</v>
+        <v>27873.41074746865</v>
       </c>
       <c r="D78">
-        <v>-53.30640959963785</v>
+        <v>107.389376350744</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>116</v>
       </c>
       <c r="B79" s="2">
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="C79">
-        <v>27819.32778071754</v>
+        <v>27766.0213711179</v>
       </c>
       <c r="D79">
-        <v>-113.8520952122235</v>
+        <v>-53.30640959963785</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>115</v>
       </c>
       <c r="B80" s="2">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="C80">
-        <v>27933.17987592976</v>
+        <v>27819.32778071754</v>
       </c>
       <c r="D80">
-        <v>-100.2620059535002</v>
+        <v>-113.8520952122235</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>114</v>
       </c>
       <c r="B81" s="2">
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="C81">
-        <v>28033.44188188326</v>
+        <v>27933.17987592976</v>
       </c>
       <c r="D81">
-        <v>30.45189179144654</v>
+        <v>-100.2620059535002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>113</v>
       </c>
       <c r="B82" s="2">
-        <v>43784</v>
+        <v>43787</v>
       </c>
       <c r="C82">
-        <v>28002.98999009182</v>
+        <v>28033.44188188326</v>
       </c>
       <c r="D82">
-        <v>216.8771525500888</v>
+        <v>30.45189179144654</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>112</v>
       </c>
       <c r="B83" s="2">
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="C83">
-        <v>27786.11283754173</v>
+        <v>28002.98999009182</v>
       </c>
       <c r="D83">
-        <v>5.91675509997367</v>
+        <v>216.8771525500888</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>111</v>
       </c>
       <c r="B84" s="2">
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="C84">
-        <v>27780.19608244175</v>
+        <v>27786.11283754173</v>
       </c>
       <c r="D84">
-        <v>87.32029105006586</v>
+        <v>5.91675509997367</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>110</v>
       </c>
       <c r="B85" s="2">
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="C85">
-        <v>27692.87579139169</v>
+        <v>27780.19608244175</v>
       </c>
       <c r="D85">
-        <v>3.323257678795926</v>
+        <v>87.32029105006586</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>109</v>
       </c>
       <c r="B86" s="2">
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="C86">
-        <v>27689.55253371289</v>
+        <v>27692.87579139169</v>
       </c>
       <c r="D86">
-        <v>11.74262927565724</v>
+        <v>3.323257678795926</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>108</v>
       </c>
       <c r="B87" s="2">
-        <v>43777</v>
+        <v>43780</v>
       </c>
       <c r="C87">
-        <v>27677.80990443724</v>
+        <v>27689.55253371289</v>
       </c>
       <c r="D87">
-        <v>-2.664031869866449</v>
+        <v>11.74262927565724</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>107</v>
       </c>
       <c r="B88" s="2">
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="C88">
-        <v>27680.4739363071</v>
+        <v>27677.80990443724</v>
       </c>
       <c r="D88">
-        <v>188.6891452753662</v>
+        <v>-2.664031869866449</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>106</v>
       </c>
       <c r="B89" s="2">
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="C89">
-        <v>27491.78479103174</v>
+        <v>27680.4739363071</v>
       </c>
       <c r="D89">
-        <v>-1.695539632044529</v>
+        <v>188.6891452753662</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>105</v>
       </c>
       <c r="B90" s="2">
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="C90">
-        <v>27493.48033066378</v>
+        <v>27491.78479103174</v>
       </c>
       <c r="D90">
-        <v>29.80758673126911</v>
+        <v>-1.695539632044529</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>104</v>
       </c>
       <c r="B91" s="2">
-        <v>43773</v>
+        <v>43774</v>
       </c>
       <c r="C91">
-        <v>27463.67274393251</v>
+        <v>27493.48033066378</v>
       </c>
       <c r="D91">
-        <v>117.5687180856621</v>
+        <v>29.80758673126911</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>103</v>
       </c>
       <c r="B92" s="2">
-        <v>43770</v>
+        <v>43773</v>
       </c>
       <c r="C92">
-        <v>27346.10402584685</v>
+        <v>27463.67274393251</v>
       </c>
       <c r="D92">
-        <v>299.0796267748083</v>
+        <v>117.5687180856621</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>102</v>
       </c>
       <c r="B93" s="2">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="C93">
-        <v>27047.02439907204</v>
+        <v>27346.10402584685</v>
       </c>
       <c r="D93">
-        <v>-141.3469658853865</v>
+        <v>299.0796267748083</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>101</v>
       </c>
       <c r="B94" s="2">
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="C94">
-        <v>27188.37136495743</v>
+        <v>27047.02439907204</v>
       </c>
       <c r="D94">
-        <v>119.2201736872667</v>
+        <v>-141.3469658853865</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="2">
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="C95">
-        <v>27069.15119127016</v>
+        <v>27188.37136495743</v>
       </c>
       <c r="D95">
-        <v>-20.01211516904004</v>
+        <v>119.2201736872667</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="2">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="C96">
-        <v>27089.1633064392</v>
+        <v>27069.15119127016</v>
       </c>
       <c r="D96">
-        <v>135.4410622390606</v>
+        <v>-20.01211516904004</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>43763</v>
+        <v>43766</v>
       </c>
       <c r="C97">
-        <v>26953.72224420014</v>
+        <v>27089.1633064392</v>
       </c>
       <c r="D97">
-        <v>147.3084832316417</v>
+        <v>135.4410622390606</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="C98">
-        <v>26806.4137609685</v>
+        <v>26953.72224420014</v>
       </c>
       <c r="D98">
-        <v>-26.48432905246591</v>
+        <v>147.3084832316417</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="C99">
-        <v>26832.89809002096</v>
+        <v>26806.4137609685</v>
       </c>
       <c r="D99">
-        <v>41.60854257027313</v>
+        <v>-26.48432905246591</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>95</v>
       </c>
       <c r="B100" s="2">
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="C100">
-        <v>26791.28954745069</v>
+        <v>26832.89809002096</v>
       </c>
       <c r="D100">
-        <v>-35.13158117587227</v>
+        <v>41.60854257027313</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1792,13 +1792,13 @@
         <v>94</v>
       </c>
       <c r="B101" s="2">
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="C101">
-        <v>26826.42112862656</v>
+        <v>26791.28954745069</v>
       </c>
       <c r="D101">
-        <v>56.49538053957076</v>
+        <v>-35.13158117587227</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="2">
-        <v>43756</v>
+        <v>43759</v>
       </c>
       <c r="C102">
-        <v>26769.92574808699</v>
+        <v>26826.42112862656</v>
       </c>
       <c r="D102">
-        <v>-259.824493213815</v>
+        <v>56.49538053957076</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="2">
-        <v>43755</v>
+        <v>43756</v>
       </c>
       <c r="C103">
-        <v>27029.75024130081</v>
+        <v>26769.92574808699</v>
       </c>
       <c r="D103">
-        <v>21.73681808275433</v>
+        <v>-259.824493213815</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>43754</v>
+        <v>43755</v>
       </c>
       <c r="C104">
-        <v>27008.01342321805</v>
+        <v>27029.75024130081</v>
       </c>
       <c r="D104">
-        <v>-14.41208687235485</v>
+        <v>21.73681808275433</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>90</v>
       </c>
       <c r="B105" s="2">
-        <v>43753</v>
+        <v>43754</v>
       </c>
       <c r="C105">
-        <v>27022.42551009041</v>
+        <v>27008.01342321805</v>
       </c>
       <c r="D105">
-        <v>236.0815126384477</v>
+        <v>-14.41208687235485</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>89</v>
       </c>
       <c r="B106" s="2">
-        <v>43752</v>
+        <v>43753</v>
       </c>
       <c r="C106">
-        <v>26786.34399745196</v>
+        <v>27022.42551009041</v>
       </c>
       <c r="D106">
-        <v>-24.17500407362604</v>
+        <v>236.0815126384477</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>88</v>
       </c>
       <c r="B107" s="2">
-        <v>43749</v>
+        <v>43752</v>
       </c>
       <c r="C107">
-        <v>26810.51900152559</v>
+        <v>26786.34399745196</v>
       </c>
       <c r="D107">
-        <v>308.6241584714953</v>
+        <v>-24.17500407362604</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>87</v>
       </c>
       <c r="B108" s="2">
-        <v>43748</v>
+        <v>43749</v>
       </c>
       <c r="C108">
-        <v>26501.89484305409</v>
+        <v>26810.51900152559</v>
       </c>
       <c r="D108">
-        <v>156.1592001108911</v>
+        <v>308.6241584714953</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>86</v>
       </c>
       <c r="B109" s="2">
-        <v>43747</v>
+        <v>43748</v>
       </c>
       <c r="C109">
-        <v>26345.7356429432</v>
+        <v>26501.89484305409</v>
       </c>
       <c r="D109">
-        <v>184.4950584415456</v>
+        <v>156.1592001108911</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1918,13 +1918,13 @@
         <v>85</v>
       </c>
       <c r="B110" s="2">
-        <v>43746</v>
+        <v>43747</v>
       </c>
       <c r="C110">
-        <v>26161.24058450165</v>
+        <v>26345.7356429432</v>
       </c>
       <c r="D110">
-        <v>-314.3394834631763</v>
+        <v>184.4950584415456</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1932,13 +1932,13 @@
         <v>84</v>
       </c>
       <c r="B111" s="2">
-        <v>43745</v>
+        <v>43746</v>
       </c>
       <c r="C111">
-        <v>26475.58006796483</v>
+        <v>26161.24058450165</v>
       </c>
       <c r="D111">
-        <v>-93.62769848125754</v>
+        <v>-314.3394834631763</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>83</v>
       </c>
       <c r="B112" s="2">
-        <v>43742</v>
+        <v>43745</v>
       </c>
       <c r="C112">
-        <v>26569.20776644609</v>
+        <v>26475.58006796483</v>
       </c>
       <c r="D112">
-        <v>366.2026497280276</v>
+        <v>-93.62769848125754</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>82</v>
       </c>
       <c r="B113" s="2">
-        <v>43741</v>
+        <v>43742</v>
       </c>
       <c r="C113">
-        <v>26203.00511671806</v>
+        <v>26569.20776644609</v>
       </c>
       <c r="D113">
-        <v>119.6711872293818</v>
+        <v>366.2026497280276</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>81</v>
       </c>
       <c r="B114" s="2">
-        <v>43740</v>
+        <v>43741</v>
       </c>
       <c r="C114">
-        <v>26083.33392948868</v>
+        <v>26203.00511671806</v>
       </c>
       <c r="D114">
-        <v>-488.5527895760351</v>
+        <v>119.6711872293818</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>80</v>
       </c>
       <c r="B115" s="2">
-        <v>43739</v>
+        <v>43740</v>
       </c>
       <c r="C115">
-        <v>26571.88671906471</v>
+        <v>26083.33392948868</v>
       </c>
       <c r="D115">
-        <v>-349.1787536064803</v>
+        <v>-488.5527895760351</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2002,13 +2002,13 @@
         <v>79</v>
       </c>
       <c r="B116" s="2">
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="C116">
-        <v>26921.06547267119</v>
+        <v>26571.88671906471</v>
       </c>
       <c r="D116">
-        <v>96.40770526195411</v>
+        <v>-349.1787536064803</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>78</v>
       </c>
       <c r="B117" s="2">
-        <v>43735</v>
+        <v>43738</v>
       </c>
       <c r="C117">
-        <v>26824.65776740924</v>
+        <v>26921.06547267119</v>
       </c>
       <c r="D117">
-        <v>-75.18022728466167</v>
+        <v>96.40770526195411</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>77</v>
       </c>
       <c r="B118" s="2">
-        <v>43734</v>
+        <v>43735</v>
       </c>
       <c r="C118">
-        <v>26899.8379946939</v>
+        <v>26824.65776740924</v>
       </c>
       <c r="D118">
-        <v>-71.34830771624911</v>
+        <v>-75.18022728466167</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>76</v>
       </c>
       <c r="B119" s="2">
-        <v>43733</v>
+        <v>43734</v>
       </c>
       <c r="C119">
-        <v>26971.18630241015</v>
+        <v>26899.8379946939</v>
       </c>
       <c r="D119">
-        <v>156.4983080373058</v>
+        <v>-71.34830771624911</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>75</v>
       </c>
       <c r="B120" s="2">
-        <v>43732</v>
+        <v>43733</v>
       </c>
       <c r="C120">
-        <v>26814.68799437285</v>
+        <v>26971.18630241015</v>
       </c>
       <c r="D120">
-        <v>-135.0327762956767</v>
+        <v>156.4983080373058</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>74</v>
       </c>
       <c r="B121" s="2">
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="C121">
-        <v>26949.72077066852</v>
+        <v>26814.68799437285</v>
       </c>
       <c r="D121">
-        <v>20.99078064466448</v>
+        <v>-135.0327762956767</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>73</v>
       </c>
       <c r="B122" s="2">
-        <v>43728</v>
+        <v>43731</v>
       </c>
       <c r="C122">
-        <v>26928.72999002386</v>
+        <v>26949.72077066852</v>
       </c>
       <c r="D122">
-        <v>-163.0770018096264</v>
+        <v>20.99078064466448</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>72</v>
       </c>
       <c r="B123" s="2">
-        <v>43727</v>
+        <v>43728</v>
       </c>
       <c r="C123">
-        <v>27091.80699183348</v>
+        <v>26928.72999002386</v>
       </c>
       <c r="D123">
-        <v>-56.05454023524726</v>
+        <v>-163.0770018096264</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>71</v>
       </c>
       <c r="B124" s="2">
-        <v>43726</v>
+        <v>43727</v>
       </c>
       <c r="C124">
-        <v>27147.86153206873</v>
+        <v>27091.80699183348</v>
       </c>
       <c r="D124">
-        <v>41.98156128931078</v>
+        <v>-56.05454023524726</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>70</v>
       </c>
       <c r="B125" s="2">
-        <v>43725</v>
+        <v>43726</v>
       </c>
       <c r="C125">
-        <v>27105.87997077942</v>
+        <v>27147.86153206873</v>
       </c>
       <c r="D125">
-        <v>33.26580936478058</v>
+        <v>41.98156128931078</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>69</v>
       </c>
       <c r="B126" s="2">
-        <v>43724</v>
+        <v>43725</v>
       </c>
       <c r="C126">
-        <v>27072.61416141464</v>
+        <v>27105.87997077942</v>
       </c>
       <c r="D126">
-        <v>-144.1134083490251</v>
+        <v>33.26580936478058</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>68</v>
       </c>
       <c r="B127" s="2">
-        <v>43721</v>
+        <v>43724</v>
       </c>
       <c r="C127">
-        <v>27216.72756976367</v>
+        <v>27072.61416141464</v>
       </c>
       <c r="D127">
-        <v>30.87645491529838</v>
+        <v>-144.1134083490251</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>67</v>
       </c>
       <c r="B128" s="2">
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="C128">
-        <v>27185.85111484837</v>
+        <v>27216.72756976367</v>
       </c>
       <c r="D128">
-        <v>53.20196435830439</v>
+        <v>30.87645491529838</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>66</v>
       </c>
       <c r="B129" s="2">
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="C129">
-        <v>27132.64915049006</v>
+        <v>27185.85111484837</v>
       </c>
       <c r="D129">
-        <v>227.3209984676141</v>
+        <v>53.20196435830439</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>65</v>
       </c>
       <c r="B130" s="2">
-        <v>43718</v>
+        <v>43719</v>
       </c>
       <c r="C130">
-        <v>26905.32815202245</v>
+        <v>27132.64915049006</v>
       </c>
       <c r="D130">
-        <v>64.86795524259651</v>
+        <v>227.3209984676141</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>64</v>
       </c>
       <c r="B131" s="2">
-        <v>43717</v>
+        <v>43718</v>
       </c>
       <c r="C131">
-        <v>26840.46019677985</v>
+        <v>26905.32815202245</v>
       </c>
       <c r="D131">
-        <v>42.92495954058177</v>
+        <v>64.86795524259651</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>63</v>
       </c>
       <c r="B132" s="2">
-        <v>43714</v>
+        <v>43717</v>
       </c>
       <c r="C132">
-        <v>26797.53523723927</v>
+        <v>26840.46019677985</v>
       </c>
       <c r="D132">
-        <v>69.76060440480069</v>
+        <v>42.92495954058177</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>62</v>
       </c>
       <c r="B133" s="2">
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="C133">
-        <v>26727.77463283447</v>
+        <v>26797.53523723927</v>
       </c>
       <c r="D133">
-        <v>369.458085821534</v>
+        <v>69.76060440480069</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>61</v>
       </c>
       <c r="B134" s="2">
-        <v>43712</v>
+        <v>43713</v>
       </c>
       <c r="C134">
-        <v>26358.31654701294</v>
+        <v>26727.77463283447</v>
       </c>
       <c r="D134">
-        <v>237.5383202902849</v>
+        <v>369.458085821534</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>60</v>
       </c>
       <c r="B135" s="2">
-        <v>43711</v>
+        <v>43712</v>
       </c>
       <c r="C135">
-        <v>26120.77822672265</v>
+        <v>26358.31654701294</v>
       </c>
       <c r="D135">
-        <v>-269.8675135623234</v>
+        <v>237.5383202902849</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2282,13 +2282,13 @@
         <v>59</v>
       </c>
       <c r="B136" s="2">
-        <v>43707</v>
+        <v>43711</v>
       </c>
       <c r="C136">
-        <v>26390.64574028497</v>
+        <v>26120.77822672265</v>
       </c>
       <c r="D136">
-        <v>28.43962535613173</v>
+        <v>-269.8675135623234</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2296,13 +2296,13 @@
         <v>58</v>
       </c>
       <c r="B137" s="2">
-        <v>43706</v>
+        <v>43707</v>
       </c>
       <c r="C137">
-        <v>26362.20611492884</v>
+        <v>26390.64574028497</v>
       </c>
       <c r="D137">
-        <v>326.9224221804725</v>
+        <v>28.43962535613173</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2310,13 +2310,13 @@
         <v>57</v>
       </c>
       <c r="B138" s="2">
-        <v>43705</v>
+        <v>43706</v>
       </c>
       <c r="C138">
-        <v>26035.28369274837</v>
+        <v>26362.20611492884</v>
       </c>
       <c r="D138">
-        <v>263.3525720801772</v>
+        <v>326.9224221804725</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>56</v>
       </c>
       <c r="B139" s="2">
-        <v>43704</v>
+        <v>43705</v>
       </c>
       <c r="C139">
-        <v>25771.93112066819</v>
+        <v>26035.28369274837</v>
       </c>
       <c r="D139">
-        <v>-132.6590208108173</v>
+        <v>263.3525720801772</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>55</v>
       </c>
       <c r="B140" s="2">
-        <v>43703</v>
+        <v>43704</v>
       </c>
       <c r="C140">
-        <v>25904.59014147901</v>
+        <v>25771.93112066819</v>
       </c>
       <c r="D140">
-        <v>269.5060245127679</v>
+        <v>-132.6590208108173</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>54</v>
       </c>
       <c r="B141" s="2">
-        <v>43700</v>
+        <v>43703</v>
       </c>
       <c r="C141">
-        <v>25635.08411696624</v>
+        <v>25904.59014147901</v>
       </c>
       <c r="D141">
-        <v>-621.4464730719228</v>
+        <v>269.5060245127679</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>53</v>
       </c>
       <c r="B142" s="2">
-        <v>43699</v>
+        <v>43700</v>
       </c>
       <c r="C142">
-        <v>26256.53059003816</v>
+        <v>25635.08411696624</v>
       </c>
       <c r="D142">
-        <v>51.76211210277324</v>
+        <v>-621.4464730719228</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2380,13 +2380,13 @@
         <v>52</v>
       </c>
       <c r="B143" s="2">
-        <v>43698</v>
+        <v>43699</v>
       </c>
       <c r="C143">
-        <v>26204.76847793539</v>
+        <v>26256.53059003816</v>
       </c>
       <c r="D143">
-        <v>238.7998017765312</v>
+        <v>51.76211210277324</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>51</v>
       </c>
       <c r="B144" s="2">
-        <v>43697</v>
+        <v>43698</v>
       </c>
       <c r="C144">
-        <v>25965.96867615886</v>
+        <v>26204.76847793539</v>
       </c>
       <c r="D144">
-        <v>-168.5705502174278</v>
+        <v>238.7998017765312</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>50</v>
       </c>
       <c r="B145" s="2">
-        <v>43696</v>
+        <v>43697</v>
       </c>
       <c r="C145">
-        <v>26134.53922637629</v>
+        <v>25965.96867615886</v>
       </c>
       <c r="D145">
-        <v>246.6501502728679</v>
+        <v>-168.5705502174278</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>49</v>
       </c>
       <c r="B146" s="2">
-        <v>43693</v>
+        <v>43696</v>
       </c>
       <c r="C146">
-        <v>25887.88907610342</v>
+        <v>26134.53922637629</v>
       </c>
       <c r="D146">
-        <v>309.7174424262412</v>
+        <v>246.6501502728679</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>48</v>
       </c>
       <c r="B147" s="2">
-        <v>43692</v>
+        <v>43693</v>
       </c>
       <c r="C147">
-        <v>25578.17163367718</v>
+        <v>25887.88907610342</v>
       </c>
       <c r="D147">
-        <v>98.78892112118046</v>
+        <v>309.7174424262412</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>47</v>
       </c>
       <c r="B148" s="2">
-        <v>43691</v>
+        <v>43692</v>
       </c>
       <c r="C148">
-        <v>25479.382712556</v>
+        <v>25578.17163367718</v>
       </c>
       <c r="D148">
-        <v>-804.2961798545402</v>
+        <v>98.78892112118046</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>46</v>
       </c>
       <c r="B149" s="2">
-        <v>43690</v>
+        <v>43691</v>
       </c>
       <c r="C149">
-        <v>26283.67889241054</v>
+        <v>25479.382712556</v>
       </c>
       <c r="D149">
-        <v>379.7669667843438</v>
+        <v>-804.2961798545402</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2478,13 +2478,13 @@
         <v>45</v>
       </c>
       <c r="B150" s="2">
-        <v>43689</v>
+        <v>43690</v>
       </c>
       <c r="C150">
-        <v>25903.91192562619</v>
+        <v>26283.67889241054</v>
       </c>
       <c r="D150">
-        <v>-383.7379206025762</v>
+        <v>379.7669667843438</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2492,13 +2492,13 @@
         <v>44</v>
       </c>
       <c r="B151" s="2">
-        <v>43686</v>
+        <v>43689</v>
       </c>
       <c r="C151">
-        <v>26287.64984622877</v>
+        <v>25903.91192562619</v>
       </c>
       <c r="D151">
-        <v>-95.76068733836655</v>
+        <v>-383.7379206025762</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>43</v>
       </c>
       <c r="B152" s="2">
-        <v>43685</v>
+        <v>43686</v>
       </c>
       <c r="C152">
-        <v>26383.41053356714</v>
+        <v>26287.64984622877</v>
       </c>
       <c r="D152">
-        <v>375.1890097778305</v>
+        <v>-95.76068733836655</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>42</v>
       </c>
       <c r="B153" s="2">
-        <v>43684</v>
+        <v>43685</v>
       </c>
       <c r="C153">
-        <v>26008.22152378931</v>
+        <v>26383.41053356714</v>
       </c>
       <c r="D153">
-        <v>-23.2628037515824</v>
+        <v>375.1890097778305</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>41</v>
       </c>
       <c r="B154" s="2">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="C154">
-        <v>26031.48432754089</v>
+        <v>26008.22152378931</v>
       </c>
       <c r="D154">
-        <v>314.3530477802306</v>
+        <v>-23.2628037515824</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2548,13 +2548,13 @@
         <v>40</v>
       </c>
       <c r="B155" s="2">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="C155">
-        <v>25717.13127976066</v>
+        <v>26031.48432754089</v>
       </c>
       <c r="D155">
-        <v>-769.3680634345073</v>
+        <v>314.3530477802306</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>39</v>
       </c>
       <c r="B156" s="2">
-        <v>43679</v>
+        <v>43682</v>
       </c>
       <c r="C156">
-        <v>26486.49934319517</v>
+        <v>25717.13127976066</v>
       </c>
       <c r="D156">
-        <v>-95.35375782667688</v>
+        <v>-769.3680634345073</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>38</v>
       </c>
       <c r="B157" s="2">
-        <v>43678</v>
+        <v>43679</v>
       </c>
       <c r="C157">
-        <v>26581.85310102184</v>
+        <v>26486.49934319517</v>
       </c>
       <c r="D157">
-        <v>-277.0884777472565</v>
+        <v>-95.35375782667688</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="B158" s="2">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="C158">
-        <v>26858.9415787691</v>
+        <v>26581.85310102184</v>
       </c>
       <c r="D158">
-        <v>-340.9567428227965</v>
+        <v>-277.0884777472565</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>36</v>
       </c>
       <c r="B159" s="2">
-        <v>43676</v>
+        <v>43677</v>
       </c>
       <c r="C159">
-        <v>27199.8983215919</v>
+        <v>26858.9415787691</v>
       </c>
       <c r="D159">
-        <v>-20.37428243443719</v>
+        <v>-340.9567428227965</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>35</v>
       </c>
       <c r="B160" s="2">
-        <v>43675</v>
+        <v>43676</v>
       </c>
       <c r="C160">
-        <v>27220.27260402633</v>
+        <v>27199.8983215919</v>
       </c>
       <c r="D160">
-        <v>28.90352499946312</v>
+        <v>-20.37428243443719</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2632,13 +2632,13 @@
         <v>34</v>
       </c>
       <c r="B161" s="2">
-        <v>43672</v>
+        <v>43675</v>
       </c>
       <c r="C161">
-        <v>27191.36907902687</v>
+        <v>27220.27260402633</v>
       </c>
       <c r="D161">
-        <v>43.51432911667143</v>
+        <v>28.90352499946312</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2646,13 +2646,13 @@
         <v>33</v>
       </c>
       <c r="B162" s="2">
-        <v>43671</v>
+        <v>43672</v>
       </c>
       <c r="C162">
-        <v>27147.8547499102</v>
+        <v>27191.36907902687</v>
       </c>
       <c r="D162">
-        <v>-121.4413306052338</v>
+        <v>43.51432911667143</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2660,13 +2660,13 @@
         <v>32</v>
       </c>
       <c r="B163" s="2">
-        <v>43670</v>
+        <v>43671</v>
       </c>
       <c r="C163">
-        <v>27269.29608051543</v>
+        <v>27147.8547499102</v>
       </c>
       <c r="D163">
-        <v>-79.8599166690874</v>
+        <v>-121.4413306052338</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2674,13 +2674,13 @@
         <v>31</v>
       </c>
       <c r="B164" s="2">
-        <v>43669</v>
+        <v>43670</v>
       </c>
       <c r="C164">
-        <v>27349.15599718452</v>
+        <v>27269.29608051543</v>
       </c>
       <c r="D164">
-        <v>176.8447836217747</v>
+        <v>-79.8599166690874</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2688,13 +2688,13 @@
         <v>30</v>
       </c>
       <c r="B165" s="2">
-        <v>43668</v>
+        <v>43669</v>
       </c>
       <c r="C165">
-        <v>27172.31121356275</v>
+        <v>27349.15599718452</v>
       </c>
       <c r="D165">
-        <v>15.3276782736466</v>
+        <v>176.8447836217747</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2702,13 +2702,13 @@
         <v>29</v>
       </c>
       <c r="B166" s="2">
-        <v>43665</v>
+        <v>43668</v>
       </c>
       <c r="C166">
-        <v>27156.9835352891</v>
+        <v>27172.31121356275</v>
       </c>
       <c r="D166">
-        <v>-64.6339707733714</v>
+        <v>15.3276782736466</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2716,13 +2716,13 @@
         <v>28</v>
       </c>
       <c r="B167" s="2">
-        <v>43664</v>
+        <v>43665</v>
       </c>
       <c r="C167">
-        <v>27221.61750606247</v>
+        <v>27156.9835352891</v>
       </c>
       <c r="D167">
-        <v>2.984149752395751</v>
+        <v>-64.6339707733714</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2730,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="B168" s="2">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="C168">
-        <v>27218.63335631007</v>
+        <v>27221.61750606247</v>
       </c>
       <c r="D168">
-        <v>-115.5069418931016</v>
+        <v>2.984149752395751</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>26</v>
       </c>
       <c r="B169" s="2">
-        <v>43662</v>
+        <v>43663</v>
       </c>
       <c r="C169">
-        <v>27334.14029820318</v>
+        <v>27218.63335631007</v>
       </c>
       <c r="D169">
-        <v>-24.10379140908117</v>
+        <v>-115.5069418931016</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2758,13 +2758,13 @@
         <v>25</v>
       </c>
       <c r="B170" s="2">
-        <v>43661</v>
+        <v>43662</v>
       </c>
       <c r="C170">
-        <v>27358.24408961226</v>
+        <v>27334.14029820318</v>
       </c>
       <c r="D170">
-        <v>29.33283563428995</v>
+        <v>-24.10379140908117</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2772,13 +2772,13 @@
         <v>24</v>
       </c>
       <c r="B171" s="2">
-        <v>43658</v>
+        <v>43661</v>
       </c>
       <c r="C171">
-        <v>27328.91125397797</v>
+        <v>27358.24408961226</v>
       </c>
       <c r="D171">
-        <v>241.1396464687459</v>
+        <v>29.33283563428995</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2786,13 +2786,13 @@
         <v>23</v>
       </c>
       <c r="B172" s="2">
-        <v>43657</v>
+        <v>43658</v>
       </c>
       <c r="C172">
-        <v>27087.77160750922</v>
+        <v>27328.91125397797</v>
       </c>
       <c r="D172">
-        <v>228.7730586084872</v>
+        <v>241.1396464687459</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2800,13 +2800,13 @@
         <v>22</v>
       </c>
       <c r="B173" s="2">
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="C173">
-        <v>26858.99854890073</v>
+        <v>27087.77160750922</v>
       </c>
       <c r="D173">
-        <v>72.96517430936365</v>
+        <v>228.7730586084872</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2814,13 +2814,13 @@
         <v>21</v>
       </c>
       <c r="B174" s="2">
-        <v>43655</v>
+        <v>43656</v>
       </c>
       <c r="C174">
-        <v>26786.03337459137</v>
+        <v>26858.99854890073</v>
       </c>
       <c r="D174">
-        <v>-22.21156917972257</v>
+        <v>72.96517430936365</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2828,13 +2828,13 @@
         <v>20</v>
       </c>
       <c r="B175" s="2">
-        <v>43654</v>
+        <v>43655</v>
       </c>
       <c r="C175">
-        <v>26808.24494377109</v>
+        <v>26786.03337459137</v>
       </c>
       <c r="D175">
-        <v>-119.1964361324171</v>
+        <v>-22.21156917972257</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2842,13 +2842,13 @@
         <v>19</v>
       </c>
       <c r="B176" s="2">
-        <v>43651</v>
+        <v>43654</v>
       </c>
       <c r="C176">
-        <v>26927.44137990351</v>
+        <v>26808.24494377109</v>
       </c>
       <c r="D176">
-        <v>-34.07831195644758</v>
+        <v>-119.1964361324171</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2856,13 +2856,13 @@
         <v>18</v>
       </c>
       <c r="B177" s="2">
-        <v>43649</v>
+        <v>43651</v>
       </c>
       <c r="C177">
-        <v>26961.51969185996</v>
+        <v>26927.44137990351</v>
       </c>
       <c r="D177">
-        <v>174.1658310031526</v>
+        <v>-34.07831195644758</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2870,13 +2870,13 @@
         <v>17</v>
       </c>
       <c r="B178" s="2">
-        <v>43648</v>
+        <v>43649</v>
       </c>
       <c r="C178">
-        <v>26787.35386085681</v>
+        <v>26961.51969185996</v>
       </c>
       <c r="D178">
-        <v>67.27697795179483</v>
+        <v>174.1658310031526</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2884,13 +2884,13 @@
         <v>16</v>
       </c>
       <c r="B179" s="2">
-        <v>43647</v>
+        <v>43648</v>
       </c>
       <c r="C179">
-        <v>26720.07688290501</v>
+        <v>26787.35386085681</v>
       </c>
       <c r="D179">
-        <v>133.0998611151481</v>
+        <v>67.27697795179483</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2898,13 +2898,13 @@
         <v>15</v>
       </c>
       <c r="B180" s="2">
-        <v>43644</v>
+        <v>43647</v>
       </c>
       <c r="C180">
-        <v>26586.97702178986</v>
+        <v>26720.07688290501</v>
       </c>
       <c r="D180">
-        <v>63.90827981085022</v>
+        <v>133.0998611151481</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>14</v>
       </c>
       <c r="B181" s="2">
-        <v>43643</v>
+        <v>43644</v>
       </c>
       <c r="C181">
-        <v>26523.06874197901</v>
+        <v>26586.97702178986</v>
       </c>
       <c r="D181">
-        <v>-15.91569141802756</v>
+        <v>63.90827981085022</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2926,13 +2926,13 @@
         <v>13</v>
       </c>
       <c r="B182" s="2">
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="C182">
-        <v>26538.98443339704</v>
+        <v>26523.06874197901</v>
       </c>
       <c r="D182">
-        <v>-10.53811792105625</v>
+        <v>-15.91569141802756</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2940,13 +2940,13 @@
         <v>12</v>
       </c>
       <c r="B183" s="2">
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="C183">
-        <v>26549.5225513181</v>
+        <v>26538.98443339704</v>
       </c>
       <c r="D183">
-        <v>-181.0327665129262</v>
+        <v>-10.53811792105625</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2954,13 +2954,13 @@
         <v>11</v>
       </c>
       <c r="B184" s="2">
-        <v>43640</v>
+        <v>43641</v>
       </c>
       <c r="C184">
-        <v>26730.55531783102</v>
+        <v>26549.5225513181</v>
       </c>
       <c r="D184">
-        <v>8.375965782288404</v>
+        <v>-181.0327665129262</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2968,13 +2968,13 @@
         <v>10</v>
       </c>
       <c r="B185" s="2">
-        <v>43637</v>
+        <v>43640</v>
       </c>
       <c r="C185">
-        <v>26722.17935204873</v>
+        <v>26730.55531783102</v>
       </c>
       <c r="D185">
-        <v>-29.19312316862488</v>
+        <v>8.375965782288404</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2982,13 +2982,13 @@
         <v>9</v>
       </c>
       <c r="B186" s="2">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="C186">
-        <v>26751.37247521736</v>
+        <v>26722.17935204873</v>
       </c>
       <c r="D186">
-        <v>247.6464493606691</v>
+        <v>-29.19312316862488</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2996,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="B187" s="2">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="C187">
-        <v>26503.72602585669</v>
+        <v>26751.37247521736</v>
       </c>
       <c r="D187">
-        <v>32.85955806893253</v>
+        <v>247.6464493606691</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3010,13 +3010,13 @@
         <v>7</v>
       </c>
       <c r="B188" s="2">
-        <v>43634</v>
+        <v>43635</v>
       </c>
       <c r="C188">
-        <v>26470.86646778776</v>
+        <v>26503.72602585669</v>
       </c>
       <c r="D188">
-        <v>358.7524485848298</v>
+        <v>32.85955806893253</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3024,13 +3024,13 @@
         <v>6</v>
       </c>
       <c r="B189" s="2">
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="C189">
-        <v>26112.11401920293</v>
+        <v>26470.86646778776</v>
       </c>
       <c r="D189">
-        <v>20.87887502893864</v>
+        <v>358.7524485848298</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3038,13 +3038,13 @@
         <v>5</v>
       </c>
       <c r="B190" s="2">
-        <v>43630</v>
+        <v>43633</v>
       </c>
       <c r="C190">
-        <v>26091.23514417399</v>
+        <v>26112.11401920293</v>
       </c>
       <c r="D190">
-        <v>-21.19424540050386</v>
+        <v>20.87887502893864</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3052,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="B191" s="2">
-        <v>43629</v>
+        <v>43630</v>
       </c>
       <c r="C191">
-        <v>26112.42938957449</v>
+        <v>26091.23514417399</v>
       </c>
       <c r="D191">
-        <v>103.1912202218191</v>
+        <v>-21.19424540050386</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>3</v>
       </c>
       <c r="B192" s="2">
-        <v>43628</v>
+        <v>43629</v>
       </c>
       <c r="C192">
-        <v>26009.23816935267</v>
+        <v>26112.42938957449</v>
       </c>
       <c r="D192">
-        <v>-39.71021639823084</v>
+        <v>103.1912202218191</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3080,13 +3080,13 @@
         <v>2</v>
       </c>
       <c r="B193" s="2">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="C193">
-        <v>26048.9483857509</v>
+        <v>26009.23816935267</v>
       </c>
       <c r="D193">
-        <v>-10.90571091329184</v>
+        <v>-39.71021639823084</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3094,13 +3094,13 @@
         <v>1</v>
       </c>
       <c r="B194" s="2">
-        <v>43626</v>
+        <v>43627</v>
       </c>
       <c r="C194">
-        <v>26059.8540966642</v>
+        <v>26048.9483857509</v>
       </c>
       <c r="D194">
-        <v>78.95721136900102</v>
+        <v>-10.90571091329184</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="B195" s="2">
-        <v>43623</v>
+        <v>43626</v>
       </c>
       <c r="C195">
-        <v>25980.89688529519</v>
+        <v>26059.8540966642</v>
       </c>
     </row>
   </sheetData>
